--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1564044.579618884</v>
+        <v>1561353.159156134</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31982354.22950962</v>
+        <v>31982354.22950961</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4153448.198085915</v>
+        <v>4153448.198085916</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4179259.141788707</v>
+        <v>4179259.141788708</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>356.006489785644</v>
+        <v>377.235339124879</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>388.9598124332312</v>
       </c>
       <c r="D11" t="n">
         <v>386.7494513221202</v>
@@ -1381,13 +1381,13 @@
         <v>384.635761738108</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>332.7410736066749</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>224.3531587476337</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>165.7627714101269</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>314.189544910332</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.1498031313027</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.0991968766175</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>126.0348587464276</v>
@@ -1584,13 +1584,13 @@
         <v>195.4221459141056</v>
       </c>
       <c r="U13" t="n">
-        <v>28.73121991311677</v>
+        <v>230.8066188665263</v>
       </c>
       <c r="V13" t="n">
         <v>239.2847173930941</v>
       </c>
       <c r="W13" t="n">
-        <v>224.5049047143916</v>
+        <v>167.5287026375993</v>
       </c>
       <c r="X13" t="n">
         <v>198.1366014647419</v>
@@ -1609,19 +1609,19 @@
         <v>377.235339124879</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>388.9598124332312</v>
       </c>
       <c r="D14" t="n">
         <v>386.7494513221202</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>384.635761738108</v>
       </c>
       <c r="F14" t="n">
         <v>378.7875196397046</v>
       </c>
       <c r="G14" t="n">
-        <v>350.9144168845714</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>370.1498031313027</v>
+        <v>119.7163253770972</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.2476795325628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1773,13 +1773,13 @@
         <v>119.4179772153128</v>
       </c>
       <c r="E16" t="n">
-        <v>123.2591880565904</v>
+        <v>39.56961834756982</v>
       </c>
       <c r="F16" t="n">
         <v>130.1387478426816</v>
       </c>
       <c r="G16" t="n">
-        <v>111.7325762050857</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>87.04887342303677</v>
@@ -1818,7 +1818,7 @@
         <v>99.80693779835624</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>195.4221459141056</v>
       </c>
       <c r="U16" t="n">
         <v>230.8066188665263</v>
@@ -1846,19 +1846,19 @@
         <v>377.235339124879</v>
       </c>
       <c r="C17" t="n">
-        <v>388.9598124332312</v>
+        <v>157.7617209257567</v>
       </c>
       <c r="D17" t="n">
         <v>386.7494513221202</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>384.635761738108</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>378.7875196397046</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>350.9144168845714</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>165.7627714101269</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>347.2270322134804</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.1498031313027</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>83.63867286785261</v>
       </c>
       <c r="H18" t="n">
-        <v>32.69798749127845</v>
+        <v>32.69798749127846</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>145.0991968766175</v>
       </c>
       <c r="C19" t="n">
-        <v>126.0348587464276</v>
+        <v>47.21864784960784</v>
       </c>
       <c r="D19" t="n">
         <v>119.4179772153128</v>
       </c>
       <c r="E19" t="n">
-        <v>123.2591880565904</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>130.1387478426816</v>
@@ -2022,7 +2022,7 @@
         <v>87.04887342303677</v>
       </c>
       <c r="I19" t="n">
-        <v>20.46877270842494</v>
+        <v>20.46877270842495</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>198.1366014647419</v>
       </c>
       <c r="Y19" t="n">
-        <v>123.3680362470611</v>
+        <v>180.3442383238531</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>386.7494513221202</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>384.635761738108</v>
       </c>
       <c r="F20" t="n">
-        <v>378.7875196397046</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>126.8939277459625</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>165.7627714101269</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>211.6953879591161</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.1498031313027</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>128.3540418854992</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.63867286785261</v>
       </c>
       <c r="H21" t="n">
-        <v>32.69798749127845</v>
+        <v>32.69798749127846</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>126.0348587464276</v>
       </c>
       <c r="D22" t="n">
-        <v>47.48132610458472</v>
+        <v>119.4179772153128</v>
       </c>
       <c r="E22" t="n">
         <v>123.2591880565904</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>130.1387478426816</v>
       </c>
       <c r="G22" t="n">
         <v>118.3858292443895</v>
       </c>
       <c r="H22" t="n">
-        <v>87.04887342303677</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>20.46877270842494</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>99.80693779835624</v>
+        <v>5.249184976408133</v>
       </c>
       <c r="T22" t="n">
         <v>195.4221459141056</v>
@@ -2329,7 +2329,7 @@
         <v>384.635761738108</v>
       </c>
       <c r="F23" t="n">
-        <v>182.1152804128002</v>
+        <v>182.1152804127993</v>
       </c>
       <c r="G23" t="n">
         <v>350.9144168845714</v>
@@ -2414,7 +2414,7 @@
         <v>83.63867286785261</v>
       </c>
       <c r="H24" t="n">
-        <v>32.69798749127845</v>
+        <v>32.69798749127846</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.7156525397511</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>199.971289108655</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.5640070653066</v>
       </c>
       <c r="U26" t="n">
         <v>256.4966236142959</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>60.03212553204258</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>83.63867286785261</v>
       </c>
       <c r="H27" t="n">
-        <v>32.69798749127845</v>
+        <v>32.69798749127846</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2803,13 +2803,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.7156525397511</v>
       </c>
       <c r="H29" t="n">
-        <v>79.41761836358386</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.5640070653066</v>
       </c>
       <c r="U29" t="n">
         <v>256.4966236142959</v>
@@ -2854,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>268.1083308265273</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2888,7 +2888,7 @@
         <v>83.63867286785261</v>
       </c>
       <c r="H30" t="n">
-        <v>32.69798749127845</v>
+        <v>32.69798749127846</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>377.235339124879</v>
+        <v>180.5630998979738</v>
       </c>
       <c r="C32" t="n">
         <v>388.9598124332312</v>
@@ -3043,7 +3043,7 @@
         <v>378.7875196397046</v>
       </c>
       <c r="G32" t="n">
-        <v>154.242177657667</v>
+        <v>350.9144168845714</v>
       </c>
       <c r="H32" t="n">
         <v>224.3531587476337</v>
@@ -3125,7 +3125,7 @@
         <v>83.63867286785261</v>
       </c>
       <c r="H33" t="n">
-        <v>32.69798749127845</v>
+        <v>32.69798749127846</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>388.9598124332312</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>386.7494513221202</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>384.635761738108</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>378.7875196397046</v>
       </c>
       <c r="G35" t="n">
         <v>350.9144168845714</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>31.51180914017341</v>
+        <v>98.94851334388629</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>211.6953879591161</v>
       </c>
       <c r="V35" t="n">
-        <v>314.189544910332</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>356.0056643878973</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>370.1498031313027</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>83.63867286785261</v>
       </c>
       <c r="H36" t="n">
-        <v>32.69798749127845</v>
+        <v>32.69798749127846</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>126.0348587464276</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.4179772153128</v>
       </c>
       <c r="E37" t="n">
-        <v>123.2591880565904</v>
+        <v>51.32253694586231</v>
       </c>
       <c r="F37" t="n">
-        <v>130.1387478426816</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>35.72840750629352</v>
+        <v>118.3858292443895</v>
       </c>
       <c r="H37" t="n">
-        <v>87.04887342303678</v>
+        <v>87.04887342303677</v>
       </c>
       <c r="I37" t="n">
         <v>20.46877270842495</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>99.80693779835626</v>
+        <v>99.80693779835624</v>
       </c>
       <c r="T37" t="n">
         <v>195.4221459141056</v>
@@ -3486,7 +3486,7 @@
         <v>239.2847173930941</v>
       </c>
       <c r="W37" t="n">
-        <v>224.5049047143917</v>
+        <v>224.5049047143916</v>
       </c>
       <c r="X37" t="n">
         <v>198.1366014647419</v>
@@ -3508,10 +3508,10 @@
         <v>388.9598124332312</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>386.7494513221202</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>384.635761738108</v>
       </c>
       <c r="F38" t="n">
         <v>378.7875196397046</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>119.7163253770976</v>
       </c>
       <c r="U38" t="n">
-        <v>211.6953879591161</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>320.0041236700472</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>359.4020268081634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.63867286785261</v>
       </c>
       <c r="H39" t="n">
-        <v>32.69798749127845</v>
+        <v>32.69798749127846</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>126.0348587464276</v>
       </c>
       <c r="D40" t="n">
-        <v>119.4179772153128</v>
+        <v>61.07053902691845</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>51.32253694586321</v>
+        <v>130.1387478426816</v>
       </c>
       <c r="G40" t="n">
         <v>118.3858292443895</v>
       </c>
       <c r="H40" t="n">
-        <v>87.04887342303678</v>
+        <v>87.04887342303677</v>
       </c>
       <c r="I40" t="n">
-        <v>20.46877270842495</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>99.80693779835626</v>
+        <v>99.80693779835624</v>
       </c>
       <c r="T40" t="n">
         <v>195.4221459141056</v>
@@ -3723,7 +3723,7 @@
         <v>239.2847173930941</v>
       </c>
       <c r="W40" t="n">
-        <v>224.5049047143917</v>
+        <v>224.5049047143916</v>
       </c>
       <c r="X40" t="n">
         <v>198.1366014647419</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>365.8265778339259</v>
+        <v>377.235339124879</v>
       </c>
       <c r="C41" t="n">
         <v>388.9598124332312</v>
@@ -3748,16 +3748,16 @@
         <v>386.7494513221202</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>292.6566991560894</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>378.7875196397046</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3531587476337</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>211.6953879591161</v>
       </c>
       <c r="V41" t="n">
-        <v>314.189544910332</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>356.0056643878973</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>83.63867286785261</v>
       </c>
       <c r="H42" t="n">
-        <v>32.69798749127845</v>
+        <v>32.69798749127846</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>126.0348587464276</v>
       </c>
       <c r="D43" t="n">
-        <v>119.4179772153128</v>
+        <v>17.14951606025973</v>
       </c>
       <c r="E43" t="n">
         <v>123.2591880565904</v>
@@ -3912,10 +3912,10 @@
         <v>130.1387478426816</v>
       </c>
       <c r="G43" t="n">
-        <v>114.4470317557217</v>
+        <v>118.3858292443895</v>
       </c>
       <c r="H43" t="n">
-        <v>87.04887342303678</v>
+        <v>87.04887342303677</v>
       </c>
       <c r="I43" t="n">
         <v>20.46877270842495</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>99.80693779835626</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>195.4221459141056</v>
@@ -3960,10 +3960,10 @@
         <v>239.2847173930941</v>
       </c>
       <c r="W43" t="n">
-        <v>224.5049047143917</v>
+        <v>224.5049047143916</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>198.1366014647419</v>
       </c>
       <c r="Y43" t="n">
         <v>180.3442383238531</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>377.235339124879</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>388.9598124332312</v>
       </c>
       <c r="D44" t="n">
         <v>386.7494513221202</v>
@@ -3991,10 +3991,10 @@
         <v>378.7875196397046</v>
       </c>
       <c r="G44" t="n">
-        <v>350.9144168845714</v>
+        <v>119.7163253770976</v>
       </c>
       <c r="H44" t="n">
-        <v>157.5389006813933</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>165.7627714101269</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>211.6953879591161</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.63867286785261</v>
       </c>
       <c r="H45" t="n">
-        <v>32.69798749127845</v>
+        <v>32.69798749127846</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>126.0348587464276</v>
       </c>
       <c r="D46" t="n">
-        <v>4.391451684939859</v>
+        <v>119.4179772153128</v>
       </c>
       <c r="E46" t="n">
         <v>123.2591880565904</v>
@@ -4152,7 +4152,7 @@
         <v>118.3858292443895</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>87.04887342303677</v>
       </c>
       <c r="I46" t="n">
         <v>20.46877270842495</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>99.80693779835626</v>
+        <v>93.15368475905248</v>
       </c>
       <c r="T46" t="n">
-        <v>195.4221459141056</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>230.8066188665263</v>
@@ -4197,7 +4197,7 @@
         <v>239.2847173930941</v>
       </c>
       <c r="W46" t="n">
-        <v>224.5049047143917</v>
+        <v>224.5049047143916</v>
       </c>
       <c r="X46" t="n">
         <v>198.1366014647419</v>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1047.768798767685</v>
+        <v>1550.140240477051</v>
       </c>
       <c r="C11" t="n">
-        <v>1047.768798767685</v>
+        <v>1157.251541049544</v>
       </c>
       <c r="D11" t="n">
-        <v>657.1127873311995</v>
+        <v>766.5955296130593</v>
       </c>
       <c r="E11" t="n">
-        <v>268.5918158785651</v>
+        <v>378.0745581604249</v>
       </c>
       <c r="F11" t="n">
-        <v>268.5918158785651</v>
+        <v>41.972463608228</v>
       </c>
       <c r="G11" t="n">
-        <v>268.5918158785651</v>
+        <v>41.972463608228</v>
       </c>
       <c r="H11" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="I11" t="n">
-        <v>105.2341360085217</v>
+        <v>105.2341360085215</v>
       </c>
       <c r="J11" t="n">
-        <v>245.4047058243893</v>
+        <v>245.404705824389</v>
       </c>
       <c r="K11" t="n">
-        <v>455.4840545065808</v>
+        <v>455.4840545065804</v>
       </c>
       <c r="L11" t="n">
-        <v>716.1060630335695</v>
+        <v>716.1060630335692</v>
       </c>
       <c r="M11" t="n">
-        <v>1006.098264004782</v>
+        <v>1006.098264004781</v>
       </c>
       <c r="N11" t="n">
         <v>1300.78284196522</v>
       </c>
       <c r="O11" t="n">
-        <v>1579.045132662441</v>
+        <v>1579.04513266244</v>
       </c>
       <c r="P11" t="n">
-        <v>1816.535559946896</v>
+        <v>1816.535559946895</v>
       </c>
       <c r="Q11" t="n">
-        <v>1994.880980305997</v>
+        <v>1994.880980305996</v>
       </c>
       <c r="R11" t="n">
         <v>2098.6231804114</v>
@@ -5071,22 +5071,22 @@
         <v>2098.6231804114</v>
       </c>
       <c r="T11" t="n">
-        <v>2098.6231804114</v>
+        <v>1931.186037572888</v>
       </c>
       <c r="U11" t="n">
-        <v>2098.6231804114</v>
+        <v>1931.186037572888</v>
       </c>
       <c r="V11" t="n">
-        <v>1781.260003734297</v>
+        <v>1931.186037572888</v>
       </c>
       <c r="W11" t="n">
-        <v>1781.260003734297</v>
+        <v>1931.186037572888</v>
       </c>
       <c r="X11" t="n">
-        <v>1407.371313702678</v>
+        <v>1931.186037572888</v>
       </c>
       <c r="Y11" t="n">
-        <v>1407.371313702678</v>
+        <v>1931.186037572888</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>75.00073380143857</v>
       </c>
       <c r="H12" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="I12" t="n">
-        <v>72.39604442038565</v>
+        <v>98.45971758084323</v>
       </c>
       <c r="J12" t="n">
-        <v>155.8806755381803</v>
+        <v>181.9443486986379</v>
       </c>
       <c r="K12" t="n">
-        <v>298.5692073548947</v>
+        <v>324.6328805153523</v>
       </c>
       <c r="L12" t="n">
-        <v>490.431547240992</v>
+        <v>516.4952204014496</v>
       </c>
       <c r="M12" t="n">
-        <v>714.3258483261318</v>
+        <v>740.3895214865894</v>
       </c>
       <c r="N12" t="n">
-        <v>1128.52728048241</v>
+        <v>970.2096385031672</v>
       </c>
       <c r="O12" t="n">
-        <v>1338.767788548284</v>
+        <v>1180.450146569042</v>
       </c>
       <c r="P12" t="n">
-        <v>1507.504331401752</v>
+        <v>1349.186689422509</v>
       </c>
       <c r="Q12" t="n">
-        <v>1620.30024171475</v>
+        <v>1503.12746362041</v>
       </c>
       <c r="R12" t="n">
         <v>1675.163453176776</v>
@@ -5190,34 +5190,34 @@
         <v>270.157792270704</v>
       </c>
       <c r="G13" t="n">
-        <v>150.5761465693005</v>
+        <v>150.5761465693004</v>
       </c>
       <c r="H13" t="n">
-        <v>62.64799159653604</v>
+        <v>62.64799159653603</v>
       </c>
       <c r="I13" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="J13" t="n">
-        <v>180.9277234319382</v>
+        <v>94.34803826724834</v>
       </c>
       <c r="K13" t="n">
-        <v>266.9968817374904</v>
+        <v>318.8576664683451</v>
       </c>
       <c r="L13" t="n">
-        <v>786.406118889312</v>
+        <v>838.2669036201665</v>
       </c>
       <c r="M13" t="n">
-        <v>963.0469791354463</v>
+        <v>954.3929205734246</v>
       </c>
       <c r="N13" t="n">
-        <v>1482.456216287268</v>
+        <v>1067.757720397944</v>
       </c>
       <c r="O13" t="n">
         <v>1587.166957549766</v>
       </c>
       <c r="P13" t="n">
-        <v>2024.271980009707</v>
+        <v>2024.271980009706</v>
       </c>
       <c r="Q13" t="n">
         <v>2086.305079943387</v>
@@ -5229,22 +5229,22 @@
         <v>1997.808091726192</v>
       </c>
       <c r="T13" t="n">
-        <v>1800.411984742247</v>
+        <v>1800.411984742246</v>
       </c>
       <c r="U13" t="n">
-        <v>1771.390550486573</v>
+        <v>1567.273985887169</v>
       </c>
       <c r="V13" t="n">
-        <v>1529.688815746074</v>
+        <v>1325.57225114667</v>
       </c>
       <c r="W13" t="n">
-        <v>1302.916184721436</v>
+        <v>1156.351339391519</v>
       </c>
       <c r="X13" t="n">
-        <v>1102.778203443919</v>
+        <v>956.2133581140023</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.6123061470977</v>
+        <v>774.047460817181</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1169.701138200548</v>
+        <v>1596.651802126576</v>
       </c>
       <c r="C14" t="n">
-        <v>1169.701138200548</v>
+        <v>1203.763102699069</v>
       </c>
       <c r="D14" t="n">
-        <v>779.0451267640624</v>
+        <v>813.1070912625843</v>
       </c>
       <c r="E14" t="n">
-        <v>779.0451267640624</v>
+        <v>424.5861198099499</v>
       </c>
       <c r="F14" t="n">
-        <v>396.4314705623405</v>
+        <v>41.972463608228</v>
       </c>
       <c r="G14" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="H14" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="I14" t="n">
-        <v>105.2341360085217</v>
+        <v>105.2341360085215</v>
       </c>
       <c r="J14" t="n">
-        <v>245.4047058243893</v>
+        <v>245.4047058243888</v>
       </c>
       <c r="K14" t="n">
-        <v>455.4840545065808</v>
+        <v>455.4840545065803</v>
       </c>
       <c r="L14" t="n">
-        <v>716.1060630335695</v>
+        <v>716.1060630335691</v>
       </c>
       <c r="M14" t="n">
-        <v>1006.098264004782</v>
+        <v>1006.098264004781</v>
       </c>
       <c r="N14" t="n">
         <v>1300.78284196522</v>
       </c>
       <c r="O14" t="n">
-        <v>1579.045132662441</v>
+        <v>1579.04513266244</v>
       </c>
       <c r="P14" t="n">
-        <v>1816.535559946896</v>
+        <v>1816.535559946895</v>
       </c>
       <c r="Q14" t="n">
-        <v>1994.880980305997</v>
+        <v>1994.880980305996</v>
       </c>
       <c r="R14" t="n">
         <v>2098.6231804114</v>
@@ -5320,10 +5320,10 @@
         <v>2098.6231804114</v>
       </c>
       <c r="X14" t="n">
-        <v>1724.734490379782</v>
+        <v>1977.697599222413</v>
       </c>
       <c r="Y14" t="n">
-        <v>1550.746935296385</v>
+        <v>1977.697599222413</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>75.00073380143857</v>
       </c>
       <c r="H15" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="I15" t="n">
-        <v>72.39604442038565</v>
+        <v>98.45971758084323</v>
       </c>
       <c r="J15" t="n">
-        <v>340.2619906778805</v>
+        <v>223.0892125835406</v>
       </c>
       <c r="K15" t="n">
-        <v>482.9505224945949</v>
+        <v>365.777744400255</v>
       </c>
       <c r="L15" t="n">
-        <v>674.8128623806923</v>
+        <v>557.6400842863524</v>
       </c>
       <c r="M15" t="n">
-        <v>898.707163465832</v>
+        <v>781.534385371492</v>
       </c>
       <c r="N15" t="n">
-        <v>1128.52728048241</v>
+        <v>1011.35450238807</v>
       </c>
       <c r="O15" t="n">
-        <v>1338.767788548284</v>
+        <v>1221.595010453944</v>
       </c>
       <c r="P15" t="n">
-        <v>1507.504331401752</v>
+        <v>1390.331553307412</v>
       </c>
       <c r="Q15" t="n">
-        <v>1620.30024171475</v>
+        <v>1503.12746362041</v>
       </c>
       <c r="R15" t="n">
         <v>1675.163453176776</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>767.3270032017226</v>
+        <v>569.930896217777</v>
       </c>
       <c r="C16" t="n">
-        <v>640.019065074018</v>
+        <v>442.6229580900724</v>
       </c>
       <c r="D16" t="n">
-        <v>519.3948456646112</v>
+        <v>321.9987386806655</v>
       </c>
       <c r="E16" t="n">
-        <v>394.8906153044189</v>
+        <v>282.0294272184738</v>
       </c>
       <c r="F16" t="n">
-        <v>263.4373346552456</v>
+        <v>150.5761465693004</v>
       </c>
       <c r="G16" t="n">
-        <v>150.5761465693005</v>
+        <v>150.5761465693004</v>
       </c>
       <c r="H16" t="n">
-        <v>62.64799159653604</v>
+        <v>62.64799159653603</v>
       </c>
       <c r="I16" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="J16" t="n">
-        <v>180.9277234319382</v>
+        <v>94.34803826724834</v>
       </c>
       <c r="K16" t="n">
-        <v>541.7553363086259</v>
+        <v>180.4171965728006</v>
       </c>
       <c r="L16" t="n">
-        <v>1061.164573460448</v>
+        <v>432.2224662928649</v>
       </c>
       <c r="M16" t="n">
-        <v>1580.573810612269</v>
+        <v>548.348483246123</v>
       </c>
       <c r="N16" t="n">
-        <v>1693.938610436789</v>
+        <v>1067.757720397944</v>
       </c>
       <c r="O16" t="n">
-        <v>1934.673851520108</v>
+        <v>1587.166957549766</v>
       </c>
       <c r="P16" t="n">
-        <v>2024.271980009707</v>
+        <v>2024.271980009706</v>
       </c>
       <c r="Q16" t="n">
         <v>2086.305079943387</v>
@@ -5466,22 +5466,22 @@
         <v>1997.808091726192</v>
       </c>
       <c r="T16" t="n">
-        <v>1997.808091726192</v>
+        <v>1800.411984742246</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.670092871115</v>
+        <v>1567.273985887169</v>
       </c>
       <c r="V16" t="n">
-        <v>1522.968358130616</v>
+        <v>1325.57225114667</v>
       </c>
       <c r="W16" t="n">
-        <v>1296.195727105978</v>
+        <v>1098.799620122032</v>
       </c>
       <c r="X16" t="n">
-        <v>1096.057745828461</v>
+        <v>898.661638844515</v>
       </c>
       <c r="Y16" t="n">
-        <v>913.8918485316393</v>
+        <v>716.4957415476937</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>825.5171744722194</v>
+        <v>1717.577383315563</v>
       </c>
       <c r="C17" t="n">
-        <v>432.6284750447131</v>
+        <v>1558.222109653182</v>
       </c>
       <c r="D17" t="n">
-        <v>41.97246360822801</v>
+        <v>1167.566098216697</v>
       </c>
       <c r="E17" t="n">
-        <v>41.97246360822801</v>
+        <v>779.0451267640624</v>
       </c>
       <c r="F17" t="n">
-        <v>41.97246360822801</v>
+        <v>396.4314705623405</v>
       </c>
       <c r="G17" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="H17" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="I17" t="n">
-        <v>105.2341360085217</v>
+        <v>105.2341360085215</v>
       </c>
       <c r="J17" t="n">
-        <v>245.4047058243892</v>
+        <v>245.404705824389</v>
       </c>
       <c r="K17" t="n">
-        <v>455.4840545065808</v>
+        <v>455.4840545065804</v>
       </c>
       <c r="L17" t="n">
-        <v>716.1060630335695</v>
+        <v>716.1060630335692</v>
       </c>
       <c r="M17" t="n">
-        <v>1006.098264004782</v>
+        <v>1006.098264004781</v>
       </c>
       <c r="N17" t="n">
         <v>1300.78284196522</v>
       </c>
       <c r="O17" t="n">
-        <v>1579.045132662441</v>
+        <v>1579.04513266244</v>
       </c>
       <c r="P17" t="n">
-        <v>1816.535559946896</v>
+        <v>1816.535559946895</v>
       </c>
       <c r="Q17" t="n">
-        <v>1994.880980305997</v>
+        <v>1994.880980305996</v>
       </c>
       <c r="R17" t="n">
         <v>2098.6231804114</v>
@@ -5545,22 +5545,22 @@
         <v>2098.6231804114</v>
       </c>
       <c r="T17" t="n">
-        <v>1931.186037572888</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="U17" t="n">
-        <v>1931.186037572888</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="V17" t="n">
-        <v>1931.186037572888</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="W17" t="n">
-        <v>1580.451661599676</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="X17" t="n">
-        <v>1206.562971568057</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="Y17" t="n">
-        <v>1206.562971568057</v>
+        <v>2098.6231804114</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>75.00073380143857</v>
       </c>
       <c r="H18" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="I18" t="n">
-        <v>72.39604442038566</v>
+        <v>98.45971758084323</v>
       </c>
       <c r="J18" t="n">
-        <v>155.8806755381803</v>
+        <v>223.0892125835406</v>
       </c>
       <c r="K18" t="n">
-        <v>298.5692073548948</v>
+        <v>365.777744400255</v>
       </c>
       <c r="L18" t="n">
-        <v>490.4315472409921</v>
+        <v>557.6400842863524</v>
       </c>
       <c r="M18" t="n">
-        <v>714.3258483261319</v>
+        <v>781.534385371492</v>
       </c>
       <c r="N18" t="n">
-        <v>944.1459653427098</v>
+        <v>1011.35450238807</v>
       </c>
       <c r="O18" t="n">
-        <v>1154.386473408584</v>
+        <v>1221.595010453944</v>
       </c>
       <c r="P18" t="n">
-        <v>1323.123016262052</v>
+        <v>1390.331553307412</v>
       </c>
       <c r="Q18" t="n">
         <v>1503.12746362041</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>774.047460817181</v>
+        <v>569.930896217777</v>
       </c>
       <c r="C19" t="n">
-        <v>646.7395226894764</v>
+        <v>522.2352923292842</v>
       </c>
       <c r="D19" t="n">
-        <v>526.1153032800696</v>
+        <v>401.6110729198774</v>
       </c>
       <c r="E19" t="n">
         <v>401.6110729198774</v>
@@ -5670,28 +5670,28 @@
         <v>62.64799159653603</v>
       </c>
       <c r="I19" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="J19" t="n">
-        <v>180.9277234319382</v>
+        <v>94.34803826724834</v>
       </c>
       <c r="K19" t="n">
-        <v>541.7553363086261</v>
+        <v>266.3072500076011</v>
       </c>
       <c r="L19" t="n">
-        <v>1061.164573460448</v>
+        <v>376.4461400646434</v>
       </c>
       <c r="M19" t="n">
-        <v>1177.290590413706</v>
+        <v>895.8553772164649</v>
       </c>
       <c r="N19" t="n">
-        <v>1290.655390238226</v>
+        <v>1415.264614368286</v>
       </c>
       <c r="O19" t="n">
-        <v>1418.974182685434</v>
+        <v>1934.673851520108</v>
       </c>
       <c r="P19" t="n">
-        <v>1856.079205145374</v>
+        <v>2024.271980009706</v>
       </c>
       <c r="Q19" t="n">
         <v>2086.305079943387</v>
@@ -5703,22 +5703,22 @@
         <v>1997.808091726192</v>
       </c>
       <c r="T19" t="n">
-        <v>1800.411984742247</v>
+        <v>1800.411984742246</v>
       </c>
       <c r="U19" t="n">
-        <v>1567.27398588717</v>
+        <v>1567.273985887169</v>
       </c>
       <c r="V19" t="n">
-        <v>1325.572251146671</v>
+        <v>1325.57225114667</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.799620122033</v>
+        <v>1098.799620122032</v>
       </c>
       <c r="X19" t="n">
-        <v>898.6616388445154</v>
+        <v>898.661638844515</v>
       </c>
       <c r="Y19" t="n">
-        <v>774.047460817181</v>
+        <v>716.4957415476937</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1336.306515265823</v>
+        <v>1214.038145924854</v>
       </c>
       <c r="C20" t="n">
-        <v>943.4178158383163</v>
+        <v>821.1494464973475</v>
       </c>
       <c r="D20" t="n">
-        <v>552.7618044018312</v>
+        <v>430.4934350608624</v>
       </c>
       <c r="E20" t="n">
-        <v>552.7618044018312</v>
+        <v>41.972463608228</v>
       </c>
       <c r="F20" t="n">
-        <v>170.1481482001093</v>
+        <v>41.972463608228</v>
       </c>
       <c r="G20" t="n">
-        <v>170.1481482001093</v>
+        <v>41.972463608228</v>
       </c>
       <c r="H20" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="I20" t="n">
-        <v>105.234136008522</v>
+        <v>105.2341360085219</v>
       </c>
       <c r="J20" t="n">
-        <v>245.4047058243895</v>
+        <v>245.4047058243894</v>
       </c>
       <c r="K20" t="n">
-        <v>455.484054506581</v>
+        <v>455.4840545065809</v>
       </c>
       <c r="L20" t="n">
-        <v>716.1060630335697</v>
+        <v>716.1060630335695</v>
       </c>
       <c r="M20" t="n">
-        <v>1006.098264004782</v>
+        <v>1006.098264004781</v>
       </c>
       <c r="N20" t="n">
-        <v>1300.782841965221</v>
+        <v>1300.78284196522</v>
       </c>
       <c r="O20" t="n">
-        <v>1579.045132662441</v>
+        <v>1579.04513266244</v>
       </c>
       <c r="P20" t="n">
-        <v>1816.535559946896</v>
+        <v>1816.535559946895</v>
       </c>
       <c r="Q20" t="n">
-        <v>1994.880980305997</v>
+        <v>1994.880980305996</v>
       </c>
       <c r="R20" t="n">
         <v>2098.6231804114</v>
@@ -5782,22 +5782,22 @@
         <v>2098.6231804114</v>
       </c>
       <c r="T20" t="n">
-        <v>1931.186037572888</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="U20" t="n">
-        <v>1717.35231236166</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="V20" t="n">
-        <v>1717.35231236166</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="W20" t="n">
-        <v>1717.35231236166</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="X20" t="n">
-        <v>1717.35231236166</v>
+        <v>1724.734490379781</v>
       </c>
       <c r="Y20" t="n">
-        <v>1717.35231236166</v>
+        <v>1595.083943020691</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>75.00073380143857</v>
       </c>
       <c r="H21" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="I21" t="n">
-        <v>72.39604442038566</v>
+        <v>98.45971758084323</v>
       </c>
       <c r="J21" t="n">
-        <v>155.8806755381803</v>
+        <v>223.0892125835406</v>
       </c>
       <c r="K21" t="n">
-        <v>298.5692073548948</v>
+        <v>365.777744400255</v>
       </c>
       <c r="L21" t="n">
-        <v>490.4315472409921</v>
+        <v>557.6400842863524</v>
       </c>
       <c r="M21" t="n">
-        <v>714.3258483261319</v>
+        <v>781.534385371492</v>
       </c>
       <c r="N21" t="n">
-        <v>944.1459653427098</v>
+        <v>1011.35450238807</v>
       </c>
       <c r="O21" t="n">
-        <v>1154.386473408584</v>
+        <v>1221.595010453944</v>
       </c>
       <c r="P21" t="n">
         <v>1390.331553307412</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.9308962177774</v>
+        <v>665.4437778561087</v>
       </c>
       <c r="C22" t="n">
-        <v>442.6229580900728</v>
+        <v>538.1358397284041</v>
       </c>
       <c r="D22" t="n">
-        <v>394.6620226308963</v>
+        <v>417.5116203189972</v>
       </c>
       <c r="E22" t="n">
-        <v>270.157792270704</v>
+        <v>293.0073899588049</v>
       </c>
       <c r="F22" t="n">
-        <v>270.157792270704</v>
+        <v>161.5541093096315</v>
       </c>
       <c r="G22" t="n">
-        <v>150.5761465693004</v>
+        <v>41.972463608228</v>
       </c>
       <c r="H22" t="n">
-        <v>62.64799159653603</v>
+        <v>41.972463608228</v>
       </c>
       <c r="I22" t="n">
-        <v>41.97246360822801</v>
+        <v>41.972463608228</v>
       </c>
       <c r="J22" t="n">
-        <v>180.9277234319382</v>
+        <v>94.34803826724834</v>
       </c>
       <c r="K22" t="n">
-        <v>541.7553363086261</v>
+        <v>266.3072500076011</v>
       </c>
       <c r="L22" t="n">
-        <v>1061.164573460448</v>
+        <v>376.4461400646434</v>
       </c>
       <c r="M22" t="n">
-        <v>1177.290590413706</v>
+        <v>895.8553772164649</v>
       </c>
       <c r="N22" t="n">
-        <v>1290.655390238226</v>
+        <v>1415.264614368286</v>
       </c>
       <c r="O22" t="n">
-        <v>1766.481076655776</v>
+        <v>1934.673851520108</v>
       </c>
       <c r="P22" t="n">
-        <v>1856.079205145374</v>
+        <v>2024.271980009706</v>
       </c>
       <c r="Q22" t="n">
         <v>2086.305079943387</v>
@@ -5937,25 +5937,25 @@
         <v>2098.6231804114</v>
       </c>
       <c r="S22" t="n">
-        <v>1997.808091726192</v>
+        <v>2093.320973364523</v>
       </c>
       <c r="T22" t="n">
-        <v>1800.411984742247</v>
+        <v>1895.924866380578</v>
       </c>
       <c r="U22" t="n">
-        <v>1567.27398588717</v>
+        <v>1662.786867525501</v>
       </c>
       <c r="V22" t="n">
-        <v>1325.572251146671</v>
+        <v>1421.085132785002</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.799620122033</v>
+        <v>1194.312501760364</v>
       </c>
       <c r="X22" t="n">
-        <v>898.6616388445154</v>
+        <v>994.1745204828467</v>
       </c>
       <c r="Y22" t="n">
-        <v>716.4957415476941</v>
+        <v>812.0086231860254</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2021.04379745733</v>
+        <v>2021.043797457329</v>
       </c>
       <c r="C23" t="n">
         <v>1628.155098029823</v>
       </c>
       <c r="D23" t="n">
-        <v>1237.499086593338</v>
+        <v>1237.499086593337</v>
       </c>
       <c r="E23" t="n">
-        <v>848.9781151407038</v>
+        <v>848.9781151407029</v>
       </c>
       <c r="F23" t="n">
         <v>665.0232864409056</v>
@@ -5983,58 +5983,58 @@
         <v>310.5642794867931</v>
       </c>
       <c r="H23" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="I23" t="n">
-        <v>147.20659961675</v>
+        <v>147.2065996167499</v>
       </c>
       <c r="J23" t="n">
-        <v>722.6318568855354</v>
+        <v>722.6318568855353</v>
       </c>
       <c r="K23" t="n">
-        <v>932.7112055677269</v>
+        <v>1037.126337187141</v>
       </c>
       <c r="L23" t="n">
-        <v>1193.333214094716</v>
+        <v>1297.74834571413</v>
       </c>
       <c r="M23" t="n">
-        <v>2232.151688398359</v>
+        <v>1587.740546685342</v>
       </c>
       <c r="N23" t="n">
-        <v>2526.836266358798</v>
+        <v>1882.425124645781</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.098557056019</v>
+        <v>2160.687415343001</v>
       </c>
       <c r="P23" t="n">
-        <v>3199.505889646645</v>
+        <v>3199.505889646644</v>
       </c>
       <c r="Q23" t="n">
-        <v>3924.350095964341</v>
+        <v>3924.35009596434</v>
       </c>
       <c r="R23" t="n">
-        <v>4197.246360822802</v>
+        <v>4197.246360822801</v>
       </c>
       <c r="S23" t="n">
-        <v>4197.246360822802</v>
+        <v>4197.246360822801</v>
       </c>
       <c r="T23" t="n">
-        <v>4029.80921798429</v>
+        <v>4029.809217984289</v>
       </c>
       <c r="U23" t="n">
         <v>3815.975492773061</v>
       </c>
       <c r="V23" t="n">
-        <v>3498.612316095958</v>
+        <v>3498.612316095957</v>
       </c>
       <c r="W23" t="n">
-        <v>3139.010634896062</v>
+        <v>3139.010634896061</v>
       </c>
       <c r="X23" t="n">
-        <v>2765.121944864443</v>
+        <v>2765.121944864442</v>
       </c>
       <c r="Y23" t="n">
-        <v>2402.089594553167</v>
+        <v>2402.089594553166</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>116.9731974096666</v>
       </c>
       <c r="H24" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="I24" t="n">
-        <v>114.3685080286137</v>
+        <v>140.4321811890713</v>
       </c>
       <c r="J24" t="n">
-        <v>197.8531391464084</v>
+        <v>223.9168123068659</v>
       </c>
       <c r="K24" t="n">
-        <v>340.5416709631228</v>
+        <v>366.6053441235803</v>
       </c>
       <c r="L24" t="n">
-        <v>532.4040108492202</v>
+        <v>558.4676840096776</v>
       </c>
       <c r="M24" t="n">
-        <v>756.2983119343598</v>
+        <v>782.3619850948173</v>
       </c>
       <c r="N24" t="n">
-        <v>986.1184289509378</v>
+        <v>1012.182102111395</v>
       </c>
       <c r="O24" t="n">
-        <v>1196.358937016812</v>
+        <v>1222.42261017727</v>
       </c>
       <c r="P24" t="n">
-        <v>1432.30401691564</v>
+        <v>1391.159153030737</v>
       </c>
       <c r="Q24" t="n">
         <v>1545.099927228639</v>
@@ -6126,43 +6126,43 @@
         <v>1132.796338148902</v>
       </c>
       <c r="C25" t="n">
-        <v>960.2346266321273</v>
+        <v>960.2346266321271</v>
       </c>
       <c r="D25" t="n">
-        <v>794.35663383365</v>
+        <v>794.3566338336498</v>
       </c>
       <c r="E25" t="n">
-        <v>624.5986300843872</v>
+        <v>624.5986300843871</v>
       </c>
       <c r="F25" t="n">
-        <v>447.8915760461434</v>
+        <v>447.8915760461433</v>
       </c>
       <c r="G25" t="n">
-        <v>283.0561569556694</v>
+        <v>283.0561569556693</v>
       </c>
       <c r="H25" t="n">
         <v>149.8742285938345</v>
       </c>
       <c r="I25" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="J25" t="n">
         <v>222.9001870401662</v>
       </c>
       <c r="K25" t="n">
-        <v>308.9693453457185</v>
+        <v>507.4144562698453</v>
       </c>
       <c r="L25" t="n">
-        <v>837.318117170722</v>
+        <v>1035.763228094849</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.928001304893</v>
+        <v>1611.37311222902</v>
       </c>
       <c r="N25" t="n">
-        <v>1819.489821240843</v>
+        <v>2166.996715211184</v>
       </c>
       <c r="O25" t="n">
-        <v>2343.869811729122</v>
+        <v>2691.376705699464</v>
       </c>
       <c r="P25" t="n">
         <v>2780.974834189062</v>
@@ -6192,7 +6192,7 @@
         <v>1552.034627553781</v>
       </c>
       <c r="Y25" t="n">
-        <v>1324.61495686789</v>
+        <v>1324.614956867889</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2219.352139634268</v>
+        <v>2021.630560410939</v>
       </c>
       <c r="C26" t="n">
-        <v>1781.209666817692</v>
+        <v>1583.488087594362</v>
       </c>
       <c r="D26" t="n">
-        <v>1345.299881992136</v>
+        <v>1147.578302768807</v>
       </c>
       <c r="E26" t="n">
-        <v>911.5251371504312</v>
+        <v>713.8035579271018</v>
       </c>
       <c r="F26" t="n">
-        <v>483.657707559639</v>
+        <v>285.9361283363095</v>
       </c>
       <c r="G26" t="n">
-        <v>83.94492721645604</v>
+        <v>285.9361283363095</v>
       </c>
       <c r="H26" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="I26" t="n">
-        <v>147.20659961675</v>
+        <v>147.2065996167499</v>
       </c>
       <c r="J26" t="n">
-        <v>722.6318568855354</v>
+        <v>722.6318568855353</v>
       </c>
       <c r="K26" t="n">
-        <v>1037.126337187142</v>
+        <v>932.7112055677268</v>
       </c>
       <c r="L26" t="n">
-        <v>1297.748345714131</v>
+        <v>1193.333214094715</v>
       </c>
       <c r="M26" t="n">
-        <v>1587.740546685343</v>
+        <v>1587.740546685342</v>
       </c>
       <c r="N26" t="n">
-        <v>1882.425124645782</v>
+        <v>1882.425124645781</v>
       </c>
       <c r="O26" t="n">
-        <v>2160.687415343002</v>
+        <v>2160.687415343001</v>
       </c>
       <c r="P26" t="n">
-        <v>3199.505889646645</v>
+        <v>3199.505889646644</v>
       </c>
       <c r="Q26" t="n">
-        <v>3924.350095964341</v>
+        <v>3924.35009596434</v>
       </c>
       <c r="R26" t="n">
-        <v>4197.246360822802</v>
+        <v>4197.246360822801</v>
       </c>
       <c r="S26" t="n">
-        <v>4151.992587433731</v>
+        <v>4151.99258743373</v>
       </c>
       <c r="T26" t="n">
-        <v>4151.992587433731</v>
+        <v>3939.301671206148</v>
       </c>
       <c r="U26" t="n">
-        <v>3892.905088833432</v>
+        <v>3680.214172605849</v>
       </c>
       <c r="V26" t="n">
-        <v>3530.288138767259</v>
+        <v>3680.214172605849</v>
       </c>
       <c r="W26" t="n">
-        <v>3125.432684178292</v>
+        <v>3275.358718016882</v>
       </c>
       <c r="X26" t="n">
-        <v>2706.290220757603</v>
+        <v>2856.216254596193</v>
       </c>
       <c r="Y26" t="n">
-        <v>2645.651710119176</v>
+        <v>2447.930130895847</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>116.9731974096666</v>
       </c>
       <c r="H27" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="I27" t="n">
         <v>140.4321811890713</v>
       </c>
       <c r="J27" t="n">
-        <v>223.9168123068659</v>
+        <v>265.0616761917688</v>
       </c>
       <c r="K27" t="n">
-        <v>524.9229861028228</v>
+        <v>407.7502080084832</v>
       </c>
       <c r="L27" t="n">
-        <v>716.7853259889202</v>
+        <v>599.6125478945805</v>
       </c>
       <c r="M27" t="n">
-        <v>940.67962707406</v>
+        <v>823.5068489797203</v>
       </c>
       <c r="N27" t="n">
-        <v>1170.499744090638</v>
+        <v>1053.326965996298</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.740252156512</v>
+        <v>1263.567474062173</v>
       </c>
       <c r="P27" t="n">
-        <v>1549.47679500998</v>
+        <v>1432.30401691564</v>
       </c>
       <c r="Q27" t="n">
-        <v>1662.272705322978</v>
+        <v>1545.099927228639</v>
       </c>
       <c r="R27" t="n">
         <v>1717.135916785004</v>
@@ -6363,37 +6363,37 @@
         <v>1132.796338148902</v>
       </c>
       <c r="C28" t="n">
-        <v>960.2346266321273</v>
+        <v>960.2346266321271</v>
       </c>
       <c r="D28" t="n">
-        <v>794.35663383365</v>
+        <v>794.3566338336498</v>
       </c>
       <c r="E28" t="n">
-        <v>624.5986300843872</v>
+        <v>624.5986300843871</v>
       </c>
       <c r="F28" t="n">
-        <v>447.8915760461434</v>
+        <v>447.8915760461433</v>
       </c>
       <c r="G28" t="n">
-        <v>283.0561569556694</v>
+        <v>283.0561569556693</v>
       </c>
       <c r="H28" t="n">
         <v>149.8742285938345</v>
       </c>
       <c r="I28" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="J28" t="n">
         <v>222.9001870401662</v>
       </c>
       <c r="K28" t="n">
-        <v>583.7277999168541</v>
+        <v>583.727799916854</v>
       </c>
       <c r="L28" t="n">
-        <v>1112.076571741858</v>
+        <v>1112.076571741857</v>
       </c>
       <c r="M28" t="n">
-        <v>1687.686455876029</v>
+        <v>1263.866218258678</v>
       </c>
       <c r="N28" t="n">
         <v>1819.489821240843</v>
@@ -6429,7 +6429,7 @@
         <v>1552.034627553781</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.61495686789</v>
+        <v>1324.614956867889</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.704526572349</v>
+        <v>2219.352139634268</v>
       </c>
       <c r="C29" t="n">
-        <v>1433.562053755772</v>
+        <v>1781.209666817692</v>
       </c>
       <c r="D29" t="n">
-        <v>997.6522689302165</v>
+        <v>1345.299881992136</v>
       </c>
       <c r="E29" t="n">
-        <v>563.8775240885116</v>
+        <v>911.5251371504312</v>
       </c>
       <c r="F29" t="n">
-        <v>563.8775240885116</v>
+        <v>483.657707559639</v>
       </c>
       <c r="G29" t="n">
-        <v>164.1647437453286</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="H29" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="I29" t="n">
-        <v>147.20659961675</v>
+        <v>147.2065996167499</v>
       </c>
       <c r="J29" t="n">
-        <v>722.6318568855354</v>
+        <v>722.6318568855353</v>
       </c>
       <c r="K29" t="n">
-        <v>1761.450331189179</v>
+        <v>1037.126337187141</v>
       </c>
       <c r="L29" t="n">
-        <v>2022.072339716168</v>
+        <v>1297.74834571413</v>
       </c>
       <c r="M29" t="n">
-        <v>2312.06454068738</v>
+        <v>1587.740546685342</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.907236418026</v>
+        <v>1882.425124645781</v>
       </c>
       <c r="O29" t="n">
-        <v>3131.169527115247</v>
+        <v>2160.687415343001</v>
       </c>
       <c r="P29" t="n">
-        <v>3368.659954399702</v>
+        <v>3199.505889646644</v>
       </c>
       <c r="Q29" t="n">
-        <v>4093.504160717398</v>
+        <v>3924.35009596434</v>
       </c>
       <c r="R29" t="n">
-        <v>4197.246360822802</v>
+        <v>4197.246360822801</v>
       </c>
       <c r="S29" t="n">
-        <v>4151.992587433731</v>
+        <v>4151.99258743373</v>
       </c>
       <c r="T29" t="n">
-        <v>4151.992587433731</v>
+        <v>3939.301671206148</v>
       </c>
       <c r="U29" t="n">
-        <v>3892.905088833432</v>
+        <v>3680.214172605849</v>
       </c>
       <c r="V29" t="n">
-        <v>3530.288138767259</v>
+        <v>3317.597222539675</v>
       </c>
       <c r="W29" t="n">
-        <v>3125.432684178292</v>
+        <v>3046.780726755304</v>
       </c>
       <c r="X29" t="n">
-        <v>2706.290220757603</v>
+        <v>2627.638263334615</v>
       </c>
       <c r="Y29" t="n">
-        <v>2298.004097057256</v>
+        <v>2219.352139634268</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>116.9731974096666</v>
       </c>
       <c r="H30" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="I30" t="n">
-        <v>114.3685080286137</v>
+        <v>140.4321811890713</v>
       </c>
       <c r="J30" t="n">
-        <v>197.8531391464084</v>
+        <v>265.0616761917688</v>
       </c>
       <c r="K30" t="n">
-        <v>340.5416709631228</v>
+        <v>407.7502080084832</v>
       </c>
       <c r="L30" t="n">
-        <v>532.4040108492202</v>
+        <v>599.6125478945805</v>
       </c>
       <c r="M30" t="n">
-        <v>756.2983119343598</v>
+        <v>823.5068489797203</v>
       </c>
       <c r="N30" t="n">
-        <v>986.1184289509378</v>
+        <v>1053.326965996298</v>
       </c>
       <c r="O30" t="n">
-        <v>1196.358937016812</v>
+        <v>1263.567474062173</v>
       </c>
       <c r="P30" t="n">
         <v>1432.30401691564</v>
@@ -6600,46 +6600,46 @@
         <v>1132.796338148902</v>
       </c>
       <c r="C31" t="n">
-        <v>960.2346266321273</v>
+        <v>960.2346266321271</v>
       </c>
       <c r="D31" t="n">
-        <v>794.35663383365</v>
+        <v>794.3566338336498</v>
       </c>
       <c r="E31" t="n">
-        <v>624.5986300843872</v>
+        <v>624.5986300843871</v>
       </c>
       <c r="F31" t="n">
-        <v>447.8915760461434</v>
+        <v>447.8915760461433</v>
       </c>
       <c r="G31" t="n">
-        <v>283.0561569556694</v>
+        <v>283.0561569556693</v>
       </c>
       <c r="H31" t="n">
         <v>149.8742285938345</v>
       </c>
       <c r="I31" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="J31" t="n">
         <v>222.9001870401662</v>
       </c>
       <c r="K31" t="n">
-        <v>308.9693453457185</v>
+        <v>328.1003371638361</v>
       </c>
       <c r="L31" t="n">
-        <v>837.318117170722</v>
+        <v>856.4491089888395</v>
       </c>
       <c r="M31" t="n">
-        <v>1263.866218258678</v>
+        <v>1432.058993123011</v>
       </c>
       <c r="N31" t="n">
-        <v>1819.489821240843</v>
+        <v>1987.682596105175</v>
       </c>
       <c r="O31" t="n">
-        <v>2343.869811729122</v>
+        <v>2512.062586593454</v>
       </c>
       <c r="P31" t="n">
-        <v>2780.974834189062</v>
+        <v>2949.167609053395</v>
       </c>
       <c r="Q31" t="n">
         <v>3011.200708987075</v>
@@ -6666,7 +6666,7 @@
         <v>1552.034627553781</v>
       </c>
       <c r="Y31" t="n">
-        <v>1324.61495686789</v>
+        <v>1324.614956867889</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2021.04379745733</v>
+        <v>2219.702624959253</v>
       </c>
       <c r="C32" t="n">
-        <v>1628.155098029823</v>
+        <v>1826.813925531747</v>
       </c>
       <c r="D32" t="n">
-        <v>1237.499086593338</v>
+        <v>1436.157914095262</v>
       </c>
       <c r="E32" t="n">
-        <v>848.9781151407038</v>
+        <v>1047.636942642627</v>
       </c>
       <c r="F32" t="n">
-        <v>466.364458938982</v>
+        <v>665.0232864409056</v>
       </c>
       <c r="G32" t="n">
         <v>310.5642794867931</v>
       </c>
       <c r="H32" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="I32" t="n">
-        <v>147.20659961675</v>
+        <v>147.2065996167499</v>
       </c>
       <c r="J32" t="n">
-        <v>287.3771694326175</v>
+        <v>722.6318568855353</v>
       </c>
       <c r="K32" t="n">
-        <v>497.456518114809</v>
+        <v>932.7112055677268</v>
       </c>
       <c r="L32" t="n">
-        <v>758.0785266417977</v>
+        <v>1193.333214094715</v>
       </c>
       <c r="M32" t="n">
-        <v>1796.897000945441</v>
+        <v>1483.325415065928</v>
       </c>
       <c r="N32" t="n">
-        <v>2835.715475249085</v>
+        <v>1778.009993026366</v>
       </c>
       <c r="O32" t="n">
-        <v>3508.514248320785</v>
+        <v>2160.687415343001</v>
       </c>
       <c r="P32" t="n">
-        <v>3746.00467560524</v>
+        <v>3199.505889646644</v>
       </c>
       <c r="Q32" t="n">
-        <v>3924.350095964341</v>
+        <v>3924.35009596434</v>
       </c>
       <c r="R32" t="n">
-        <v>4197.246360822802</v>
+        <v>4197.246360822801</v>
       </c>
       <c r="S32" t="n">
-        <v>4197.246360822802</v>
+        <v>4197.246360822801</v>
       </c>
       <c r="T32" t="n">
-        <v>4029.80921798429</v>
+        <v>4029.809217984289</v>
       </c>
       <c r="U32" t="n">
         <v>3815.975492773061</v>
       </c>
       <c r="V32" t="n">
-        <v>3498.612316095958</v>
+        <v>3498.612316095957</v>
       </c>
       <c r="W32" t="n">
-        <v>3139.010634896062</v>
+        <v>3139.010634896061</v>
       </c>
       <c r="X32" t="n">
-        <v>2765.121944864443</v>
+        <v>2765.121944864442</v>
       </c>
       <c r="Y32" t="n">
-        <v>2402.089594553167</v>
+        <v>2402.089594553166</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>116.9731974096666</v>
       </c>
       <c r="H33" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="I33" t="n">
-        <v>114.3685080286137</v>
+        <v>140.4321811890713</v>
       </c>
       <c r="J33" t="n">
-        <v>197.8531391464084</v>
+        <v>265.0616761917688</v>
       </c>
       <c r="K33" t="n">
-        <v>340.5416709631228</v>
+        <v>407.7502080084832</v>
       </c>
       <c r="L33" t="n">
-        <v>532.4040108492202</v>
+        <v>599.6125478945805</v>
       </c>
       <c r="M33" t="n">
-        <v>756.2983119343598</v>
+        <v>823.5068489797203</v>
       </c>
       <c r="N33" t="n">
-        <v>986.1184289509378</v>
+        <v>1053.326965996298</v>
       </c>
       <c r="O33" t="n">
-        <v>1196.358937016812</v>
+        <v>1263.567474062173</v>
       </c>
       <c r="P33" t="n">
-        <v>1365.09547987028</v>
+        <v>1432.30401691564</v>
       </c>
       <c r="Q33" t="n">
         <v>1545.099927228639</v>
@@ -6837,46 +6837,46 @@
         <v>1132.796338148902</v>
       </c>
       <c r="C34" t="n">
-        <v>960.2346266321273</v>
+        <v>960.2346266321271</v>
       </c>
       <c r="D34" t="n">
-        <v>794.35663383365</v>
+        <v>794.3566338336498</v>
       </c>
       <c r="E34" t="n">
-        <v>624.5986300843872</v>
+        <v>624.5986300843871</v>
       </c>
       <c r="F34" t="n">
-        <v>447.8915760461434</v>
+        <v>447.8915760461433</v>
       </c>
       <c r="G34" t="n">
-        <v>283.0561569556694</v>
+        <v>283.0561569556693</v>
       </c>
       <c r="H34" t="n">
         <v>149.8742285938345</v>
       </c>
       <c r="I34" t="n">
-        <v>83.94492721645604</v>
+        <v>83.94492721645602</v>
       </c>
       <c r="J34" t="n">
         <v>222.9001870401662</v>
       </c>
       <c r="K34" t="n">
-        <v>583.7277999168541</v>
+        <v>328.1003371638361</v>
       </c>
       <c r="L34" t="n">
-        <v>1112.076571741858</v>
+        <v>856.4491089888395</v>
       </c>
       <c r="M34" t="n">
-        <v>1263.866218258678</v>
+        <v>1432.058993123011</v>
       </c>
       <c r="N34" t="n">
-        <v>1819.489821240843</v>
+        <v>1987.682596105175</v>
       </c>
       <c r="O34" t="n">
-        <v>2343.869811729122</v>
+        <v>2512.062586593454</v>
       </c>
       <c r="P34" t="n">
-        <v>2780.974834189062</v>
+        <v>2949.167609053395</v>
       </c>
       <c r="Q34" t="n">
         <v>3011.200708987075</v>
@@ -6903,7 +6903,7 @@
         <v>1552.034627553781</v>
       </c>
       <c r="Y34" t="n">
-        <v>1324.61495686789</v>
+        <v>1324.614956867889</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1015.939522260184</v>
+        <v>1784.841461923519</v>
       </c>
       <c r="C35" t="n">
-        <v>623.0508228326776</v>
+        <v>1784.841461923519</v>
       </c>
       <c r="D35" t="n">
-        <v>623.0508228326776</v>
+        <v>1394.185450487034</v>
       </c>
       <c r="E35" t="n">
-        <v>623.0508228326776</v>
+        <v>1005.664479034399</v>
       </c>
       <c r="F35" t="n">
         <v>623.0508228326776</v>
@@ -6931,58 +6931,58 @@
         <v>268.5918158785651</v>
       </c>
       <c r="H35" t="n">
-        <v>41.97246360822803</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="I35" t="n">
-        <v>105.2341360085224</v>
+        <v>105.2341360085219</v>
       </c>
       <c r="J35" t="n">
-        <v>245.4047058243899</v>
+        <v>245.4047058243894</v>
       </c>
       <c r="K35" t="n">
-        <v>455.4840545065815</v>
+        <v>455.4840545065809</v>
       </c>
       <c r="L35" t="n">
-        <v>716.1060630335701</v>
+        <v>716.1060630335695</v>
       </c>
       <c r="M35" t="n">
         <v>1006.098264004782</v>
       </c>
       <c r="N35" t="n">
-        <v>1300.782841965221</v>
+        <v>1300.78284196522</v>
       </c>
       <c r="O35" t="n">
-        <v>1579.045132662442</v>
+        <v>1579.045132662441</v>
       </c>
       <c r="P35" t="n">
-        <v>1816.535559946897</v>
+        <v>1816.535559946896</v>
       </c>
       <c r="Q35" t="n">
-        <v>1994.880980305998</v>
+        <v>1994.880980305997</v>
       </c>
       <c r="R35" t="n">
-        <v>2098.623180411401</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="S35" t="n">
-        <v>2098.623180411401</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="T35" t="n">
-        <v>2066.793070168802</v>
+        <v>1998.675187134748</v>
       </c>
       <c r="U35" t="n">
-        <v>2066.793070168802</v>
+        <v>1784.841461923519</v>
       </c>
       <c r="V35" t="n">
-        <v>1749.429893491699</v>
+        <v>1784.841461923519</v>
       </c>
       <c r="W35" t="n">
-        <v>1389.828212291803</v>
+        <v>1784.841461923519</v>
       </c>
       <c r="X35" t="n">
-        <v>1015.939522260184</v>
+        <v>1784.841461923519</v>
       </c>
       <c r="Y35" t="n">
-        <v>1015.939522260184</v>
+        <v>1784.841461923519</v>
       </c>
     </row>
     <row r="36">
@@ -6995,37 +6995,37 @@
         <v>538.5352448224536</v>
       </c>
       <c r="C36" t="n">
-        <v>432.0787836590959</v>
+        <v>432.0787836590958</v>
       </c>
       <c r="D36" t="n">
-        <v>336.9884948056492</v>
+        <v>336.9884948056491</v>
       </c>
       <c r="E36" t="n">
-        <v>242.8680801326029</v>
+        <v>242.8680801326028</v>
       </c>
       <c r="F36" t="n">
-        <v>159.4842417487645</v>
+        <v>159.4842417487644</v>
       </c>
       <c r="G36" t="n">
-        <v>75.00073380143859</v>
+        <v>75.00073380143857</v>
       </c>
       <c r="H36" t="n">
-        <v>41.97246360822803</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="I36" t="n">
-        <v>72.39604442038568</v>
+        <v>72.39604442038565</v>
       </c>
       <c r="J36" t="n">
-        <v>340.2619906778803</v>
+        <v>340.2619906778805</v>
       </c>
       <c r="K36" t="n">
-        <v>482.9505224945947</v>
+        <v>482.9505224945949</v>
       </c>
       <c r="L36" t="n">
-        <v>674.8128623806921</v>
+        <v>674.8128623806923</v>
       </c>
       <c r="M36" t="n">
-        <v>898.7071634658317</v>
+        <v>898.707163465832</v>
       </c>
       <c r="N36" t="n">
         <v>1128.52728048241</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>569.9308962177784</v>
+        <v>569.9308962177774</v>
       </c>
       <c r="C37" t="n">
-        <v>442.6229580900737</v>
+        <v>442.6229580900728</v>
       </c>
       <c r="D37" t="n">
-        <v>442.6229580900737</v>
+        <v>321.998738680666</v>
       </c>
       <c r="E37" t="n">
-        <v>318.1187277298814</v>
+        <v>270.157792270704</v>
       </c>
       <c r="F37" t="n">
-        <v>186.6654470807081</v>
+        <v>270.157792270704</v>
       </c>
       <c r="G37" t="n">
         <v>150.5761465693005</v>
       </c>
       <c r="H37" t="n">
-        <v>62.64799159653606</v>
+        <v>62.64799159653604</v>
       </c>
       <c r="I37" t="n">
-        <v>41.97246360822803</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="J37" t="n">
-        <v>180.9277234319382</v>
+        <v>94.34803826724834</v>
       </c>
       <c r="K37" t="n">
-        <v>541.7553363086262</v>
+        <v>180.4171965728006</v>
       </c>
       <c r="L37" t="n">
-        <v>791.1446359539669</v>
+        <v>376.4461400646434</v>
       </c>
       <c r="M37" t="n">
-        <v>1310.553873105789</v>
+        <v>895.8553772164651</v>
       </c>
       <c r="N37" t="n">
-        <v>1829.963110257611</v>
+        <v>1415.264614368287</v>
       </c>
       <c r="O37" t="n">
-        <v>1934.673851520109</v>
+        <v>1934.673851520108</v>
       </c>
       <c r="P37" t="n">
         <v>2024.271980009707</v>
       </c>
       <c r="Q37" t="n">
-        <v>2086.305079943388</v>
+        <v>2086.305079943387</v>
       </c>
       <c r="R37" t="n">
-        <v>2098.623180411401</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="S37" t="n">
-        <v>1997.808091726193</v>
+        <v>1997.808091726192</v>
       </c>
       <c r="T37" t="n">
-        <v>1800.411984742248</v>
+        <v>1800.411984742247</v>
       </c>
       <c r="U37" t="n">
-        <v>1567.273985887171</v>
+        <v>1567.27398588717</v>
       </c>
       <c r="V37" t="n">
-        <v>1325.572251146672</v>
+        <v>1325.572251146671</v>
       </c>
       <c r="W37" t="n">
-        <v>1098.799620122034</v>
+        <v>1098.799620122033</v>
       </c>
       <c r="X37" t="n">
-        <v>898.6616388445163</v>
+        <v>898.6616388445154</v>
       </c>
       <c r="Y37" t="n">
-        <v>716.495741547695</v>
+        <v>716.4957415476941</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>817.4748192374561</v>
+        <v>1596.651802126576</v>
       </c>
       <c r="C38" t="n">
-        <v>424.5861198099499</v>
+        <v>1203.763102699069</v>
       </c>
       <c r="D38" t="n">
-        <v>424.5861198099499</v>
+        <v>813.1070912625843</v>
       </c>
       <c r="E38" t="n">
         <v>424.5861198099499</v>
       </c>
       <c r="F38" t="n">
-        <v>41.97246360822803</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="G38" t="n">
-        <v>41.97246360822803</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="H38" t="n">
-        <v>41.97246360822803</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="I38" t="n">
-        <v>105.2341360085222</v>
+        <v>105.2341360085219</v>
       </c>
       <c r="J38" t="n">
-        <v>245.4047058243897</v>
+        <v>245.4047058243894</v>
       </c>
       <c r="K38" t="n">
-        <v>455.4840545065812</v>
+        <v>455.4840545065808</v>
       </c>
       <c r="L38" t="n">
-        <v>716.10606303357</v>
+        <v>716.1060630335695</v>
       </c>
       <c r="M38" t="n">
         <v>1006.098264004782</v>
       </c>
       <c r="N38" t="n">
-        <v>1300.782841965221</v>
+        <v>1300.78284196522</v>
       </c>
       <c r="O38" t="n">
-        <v>1579.045132662442</v>
+        <v>1579.045132662441</v>
       </c>
       <c r="P38" t="n">
         <v>1816.535559946896</v>
       </c>
       <c r="Q38" t="n">
-        <v>1994.880980305998</v>
+        <v>1994.880980305997</v>
       </c>
       <c r="R38" t="n">
-        <v>2098.623180411401</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="S38" t="n">
-        <v>2098.623180411401</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="T38" t="n">
-        <v>2098.623180411401</v>
+        <v>1977.697599222413</v>
       </c>
       <c r="U38" t="n">
-        <v>1884.789455200173</v>
+        <v>1977.697599222413</v>
       </c>
       <c r="V38" t="n">
-        <v>1884.789455200173</v>
+        <v>1977.697599222413</v>
       </c>
       <c r="W38" t="n">
-        <v>1884.789455200173</v>
+        <v>1977.697599222413</v>
       </c>
       <c r="X38" t="n">
-        <v>1561.55296664457</v>
+        <v>1977.697599222413</v>
       </c>
       <c r="Y38" t="n">
-        <v>1198.520616333293</v>
+        <v>1977.697599222413</v>
       </c>
     </row>
     <row r="39">
@@ -7232,46 +7232,46 @@
         <v>538.5352448224536</v>
       </c>
       <c r="C39" t="n">
-        <v>432.0787836590959</v>
+        <v>432.0787836590958</v>
       </c>
       <c r="D39" t="n">
-        <v>336.9884948056492</v>
+        <v>336.9884948056491</v>
       </c>
       <c r="E39" t="n">
-        <v>242.8680801326029</v>
+        <v>242.8680801326028</v>
       </c>
       <c r="F39" t="n">
-        <v>159.4842417487645</v>
+        <v>159.4842417487644</v>
       </c>
       <c r="G39" t="n">
-        <v>75.00073380143859</v>
+        <v>75.00073380143857</v>
       </c>
       <c r="H39" t="n">
-        <v>41.97246360822803</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="I39" t="n">
-        <v>72.39604442038568</v>
+        <v>98.45971758084325</v>
       </c>
       <c r="J39" t="n">
-        <v>155.8806755381803</v>
+        <v>223.0892125835406</v>
       </c>
       <c r="K39" t="n">
-        <v>298.5692073548948</v>
+        <v>365.777744400255</v>
       </c>
       <c r="L39" t="n">
-        <v>490.4315472409921</v>
+        <v>557.6400842863524</v>
       </c>
       <c r="M39" t="n">
-        <v>714.3258483261319</v>
+        <v>781.534385371492</v>
       </c>
       <c r="N39" t="n">
-        <v>944.1459653427098</v>
+        <v>1011.35450238807</v>
       </c>
       <c r="O39" t="n">
-        <v>1154.386473408584</v>
+        <v>1221.595010453944</v>
       </c>
       <c r="P39" t="n">
-        <v>1323.123016262052</v>
+        <v>1390.331553307412</v>
       </c>
       <c r="Q39" t="n">
         <v>1503.12746362041</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>569.9308962177784</v>
+        <v>569.9308962177774</v>
       </c>
       <c r="C40" t="n">
-        <v>442.6229580900737</v>
+        <v>442.6229580900728</v>
       </c>
       <c r="D40" t="n">
-        <v>321.9987386806669</v>
+        <v>380.9355449315693</v>
       </c>
       <c r="E40" t="n">
-        <v>321.9987386806669</v>
+        <v>380.9355449315693</v>
       </c>
       <c r="F40" t="n">
-        <v>270.157792270704</v>
+        <v>249.482264282396</v>
       </c>
       <c r="G40" t="n">
-        <v>150.5761465693005</v>
+        <v>129.9006185809924</v>
       </c>
       <c r="H40" t="n">
-        <v>62.64799159653606</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="I40" t="n">
-        <v>41.97246360822803</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="J40" t="n">
-        <v>180.9277234319382</v>
+        <v>94.34803826724834</v>
       </c>
       <c r="K40" t="n">
-        <v>541.7553363086262</v>
+        <v>180.4171965728006</v>
       </c>
       <c r="L40" t="n">
-        <v>651.8942263656686</v>
+        <v>699.8264337246222</v>
       </c>
       <c r="M40" t="n">
-        <v>768.0202433189268</v>
+        <v>1219.235670876444</v>
       </c>
       <c r="N40" t="n">
-        <v>1247.071839503955</v>
+        <v>1738.644908028265</v>
       </c>
       <c r="O40" t="n">
-        <v>1766.481076655777</v>
+        <v>1934.673851520108</v>
       </c>
       <c r="P40" t="n">
-        <v>1856.079205145375</v>
+        <v>2024.271980009707</v>
       </c>
       <c r="Q40" t="n">
-        <v>2086.305079943388</v>
+        <v>2086.305079943387</v>
       </c>
       <c r="R40" t="n">
-        <v>2098.623180411401</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="S40" t="n">
-        <v>1997.808091726193</v>
+        <v>1997.808091726192</v>
       </c>
       <c r="T40" t="n">
-        <v>1800.411984742248</v>
+        <v>1800.411984742247</v>
       </c>
       <c r="U40" t="n">
-        <v>1567.273985887171</v>
+        <v>1567.27398588717</v>
       </c>
       <c r="V40" t="n">
-        <v>1325.572251146672</v>
+        <v>1325.572251146671</v>
       </c>
       <c r="W40" t="n">
-        <v>1098.799620122034</v>
+        <v>1098.799620122033</v>
       </c>
       <c r="X40" t="n">
-        <v>898.6616388445163</v>
+        <v>898.6616388445154</v>
       </c>
       <c r="Y40" t="n">
-        <v>716.495741547695</v>
+        <v>716.4957415476941</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1052.136526742556</v>
+        <v>1503.743658104335</v>
       </c>
       <c r="C41" t="n">
-        <v>659.2478273150502</v>
+        <v>1110.854958676828</v>
       </c>
       <c r="D41" t="n">
-        <v>268.5918158785651</v>
+        <v>720.1989472403433</v>
       </c>
       <c r="E41" t="n">
-        <v>268.5918158785651</v>
+        <v>424.5861198099499</v>
       </c>
       <c r="F41" t="n">
-        <v>268.5918158785651</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="G41" t="n">
-        <v>268.5918158785651</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="H41" t="n">
         <v>41.97246360822801</v>
       </c>
       <c r="I41" t="n">
-        <v>105.234136008522</v>
+        <v>105.2341360085217</v>
       </c>
       <c r="J41" t="n">
-        <v>245.4047058243895</v>
+        <v>245.4047058243893</v>
       </c>
       <c r="K41" t="n">
-        <v>455.484054506581</v>
+        <v>455.4840545065808</v>
       </c>
       <c r="L41" t="n">
-        <v>716.1060630335697</v>
+        <v>716.1060630335695</v>
       </c>
       <c r="M41" t="n">
         <v>1006.098264004782</v>
       </c>
       <c r="N41" t="n">
-        <v>1300.782841965221</v>
+        <v>1300.78284196522</v>
       </c>
       <c r="O41" t="n">
         <v>1579.045132662441</v>
@@ -7444,19 +7444,19 @@
         <v>2098.6231804114</v>
       </c>
       <c r="U41" t="n">
-        <v>2098.6231804114</v>
+        <v>1884.789455200172</v>
       </c>
       <c r="V41" t="n">
-        <v>1781.260003734297</v>
+        <v>1884.789455200172</v>
       </c>
       <c r="W41" t="n">
-        <v>1421.658322534401</v>
+        <v>1884.789455200172</v>
       </c>
       <c r="X41" t="n">
-        <v>1421.658322534401</v>
+        <v>1884.789455200172</v>
       </c>
       <c r="Y41" t="n">
-        <v>1421.658322534401</v>
+        <v>1884.789455200172</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>41.97246360822801</v>
       </c>
       <c r="I42" t="n">
-        <v>72.39604442038566</v>
+        <v>72.39604442038565</v>
       </c>
       <c r="J42" t="n">
         <v>155.8806755381803</v>
       </c>
       <c r="K42" t="n">
-        <v>298.5692073548948</v>
+        <v>298.5692073548947</v>
       </c>
       <c r="L42" t="n">
-        <v>490.4315472409921</v>
+        <v>674.8128623806923</v>
       </c>
       <c r="M42" t="n">
-        <v>714.3258483261319</v>
+        <v>898.707163465832</v>
       </c>
       <c r="N42" t="n">
-        <v>944.1459653427098</v>
+        <v>1128.52728048241</v>
       </c>
       <c r="O42" t="n">
-        <v>1154.386473408584</v>
+        <v>1338.767788548284</v>
       </c>
       <c r="P42" t="n">
-        <v>1323.123016262052</v>
+        <v>1507.504331401752</v>
       </c>
       <c r="Q42" t="n">
-        <v>1503.12746362041</v>
+        <v>1620.30024171475</v>
       </c>
       <c r="R42" t="n">
         <v>1675.163453176776</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>770.0688774952946</v>
+        <v>670.745984902986</v>
       </c>
       <c r="C43" t="n">
-        <v>642.7609393675899</v>
+        <v>543.4380467752815</v>
       </c>
       <c r="D43" t="n">
-        <v>522.136719958183</v>
+        <v>526.1153032800696</v>
       </c>
       <c r="E43" t="n">
-        <v>397.6324895979907</v>
+        <v>401.6110729198774</v>
       </c>
       <c r="F43" t="n">
-        <v>266.1792089488173</v>
+        <v>270.157792270704</v>
       </c>
       <c r="G43" t="n">
         <v>150.5761465693005</v>
@@ -7569,22 +7569,22 @@
         <v>41.97246360822801</v>
       </c>
       <c r="J43" t="n">
-        <v>94.34803826724837</v>
+        <v>94.34803826724834</v>
       </c>
       <c r="K43" t="n">
-        <v>180.4171965728007</v>
+        <v>180.4171965728006</v>
       </c>
       <c r="L43" t="n">
-        <v>290.5560866298432</v>
+        <v>290.556086629843</v>
       </c>
       <c r="M43" t="n">
-        <v>406.6821035831012</v>
+        <v>809.9653237816647</v>
       </c>
       <c r="N43" t="n">
-        <v>926.0913407349227</v>
+        <v>1329.374560933486</v>
       </c>
       <c r="O43" t="n">
-        <v>1418.974182685434</v>
+        <v>1766.481076655776</v>
       </c>
       <c r="P43" t="n">
         <v>1856.079205145374</v>
@@ -7596,25 +7596,25 @@
         <v>2098.6231804114</v>
       </c>
       <c r="S43" t="n">
-        <v>1997.808091726192</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="T43" t="n">
-        <v>1800.411984742247</v>
+        <v>1901.227073427455</v>
       </c>
       <c r="U43" t="n">
-        <v>1567.27398588717</v>
+        <v>1668.089074572378</v>
       </c>
       <c r="V43" t="n">
-        <v>1325.572251146671</v>
+        <v>1426.387339831879</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.799620122033</v>
+        <v>1199.614708807241</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.799620122033</v>
+        <v>999.476727529724</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.6337228252113</v>
+        <v>817.3108302329027</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1717.35231236166</v>
+        <v>1717.577383315563</v>
       </c>
       <c r="C44" t="n">
-        <v>1717.35231236166</v>
+        <v>1324.688683888057</v>
       </c>
       <c r="D44" t="n">
-        <v>1326.696300925175</v>
+        <v>934.0326724515718</v>
       </c>
       <c r="E44" t="n">
-        <v>938.1753294725405</v>
+        <v>545.5117009989374</v>
       </c>
       <c r="F44" t="n">
-        <v>555.5616732708186</v>
+        <v>162.8980447972155</v>
       </c>
       <c r="G44" t="n">
-        <v>201.1026663167061</v>
+        <v>41.97246360822801</v>
       </c>
       <c r="H44" t="n">
         <v>41.97246360822801</v>
       </c>
       <c r="I44" t="n">
-        <v>105.2341360085217</v>
+        <v>105.2341360085219</v>
       </c>
       <c r="J44" t="n">
-        <v>245.4047058243892</v>
+        <v>245.4047058243894</v>
       </c>
       <c r="K44" t="n">
-        <v>455.4840545065808</v>
+        <v>455.4840545065809</v>
       </c>
       <c r="L44" t="n">
         <v>716.1060630335695</v>
@@ -7678,22 +7678,22 @@
         <v>2098.6231804114</v>
       </c>
       <c r="T44" t="n">
-        <v>1931.186037572888</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="U44" t="n">
-        <v>1717.35231236166</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="V44" t="n">
-        <v>1717.35231236166</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="W44" t="n">
-        <v>1717.35231236166</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="X44" t="n">
-        <v>1717.35231236166</v>
+        <v>2098.6231804114</v>
       </c>
       <c r="Y44" t="n">
-        <v>1717.35231236166</v>
+        <v>2098.6231804114</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>41.97246360822801</v>
       </c>
       <c r="I45" t="n">
-        <v>72.39604442038566</v>
+        <v>98.45971758084325</v>
       </c>
       <c r="J45" t="n">
-        <v>155.8806755381803</v>
+        <v>223.0892125835406</v>
       </c>
       <c r="K45" t="n">
-        <v>298.5692073548948</v>
+        <v>365.777744400255</v>
       </c>
       <c r="L45" t="n">
-        <v>490.4315472409921</v>
+        <v>557.6400842863524</v>
       </c>
       <c r="M45" t="n">
-        <v>714.3258483261319</v>
+        <v>781.534385371492</v>
       </c>
       <c r="N45" t="n">
-        <v>944.1459653427098</v>
+        <v>1011.35450238807</v>
       </c>
       <c r="O45" t="n">
-        <v>1154.386473408584</v>
+        <v>1221.595010453944</v>
       </c>
       <c r="P45" t="n">
-        <v>1323.123016262052</v>
+        <v>1390.331553307412</v>
       </c>
       <c r="Q45" t="n">
         <v>1503.12746362041</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>569.9308962177774</v>
+        <v>774.047460817181</v>
       </c>
       <c r="C46" t="n">
-        <v>442.6229580900728</v>
+        <v>646.7395226894764</v>
       </c>
       <c r="D46" t="n">
-        <v>438.1871483073053</v>
+        <v>526.1153032800696</v>
       </c>
       <c r="E46" t="n">
-        <v>313.682917947113</v>
+        <v>401.6110729198774</v>
       </c>
       <c r="F46" t="n">
-        <v>182.2296372979396</v>
+        <v>270.157792270704</v>
       </c>
       <c r="G46" t="n">
-        <v>62.64799159653604</v>
+        <v>150.5761465693005</v>
       </c>
       <c r="H46" t="n">
         <v>62.64799159653604</v>
@@ -7806,22 +7806,22 @@
         <v>41.97246360822801</v>
       </c>
       <c r="J46" t="n">
-        <v>94.34803826724837</v>
+        <v>180.9277234319382</v>
       </c>
       <c r="K46" t="n">
-        <v>180.4171965728007</v>
+        <v>541.7553363086259</v>
       </c>
       <c r="L46" t="n">
-        <v>290.5560866298432</v>
+        <v>1061.164573460448</v>
       </c>
       <c r="M46" t="n">
-        <v>406.6821035831012</v>
+        <v>1177.290590413706</v>
       </c>
       <c r="N46" t="n">
-        <v>926.0913407349227</v>
+        <v>1290.655390238225</v>
       </c>
       <c r="O46" t="n">
-        <v>1445.500577886744</v>
+        <v>1418.974182685434</v>
       </c>
       <c r="P46" t="n">
         <v>1856.079205145374</v>
@@ -7833,25 +7833,25 @@
         <v>2098.6231804114</v>
       </c>
       <c r="S46" t="n">
-        <v>1997.808091726192</v>
+        <v>2004.52854934165</v>
       </c>
       <c r="T46" t="n">
-        <v>1800.411984742247</v>
+        <v>2004.52854934165</v>
       </c>
       <c r="U46" t="n">
-        <v>1567.27398588717</v>
+        <v>1771.390550486573</v>
       </c>
       <c r="V46" t="n">
-        <v>1325.572251146671</v>
+        <v>1529.688815746074</v>
       </c>
       <c r="W46" t="n">
-        <v>1098.799620122033</v>
+        <v>1302.916184721436</v>
       </c>
       <c r="X46" t="n">
-        <v>898.6616388445154</v>
+        <v>1102.778203443919</v>
       </c>
       <c r="Y46" t="n">
-        <v>716.4957415476941</v>
+        <v>920.6123061470977</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>186.2437526663639</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>41.56046857060892</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>139.838858480348</v>
       </c>
       <c r="L13" t="n">
-        <v>413.4043910048274</v>
+        <v>413.4043910048273</v>
       </c>
       <c r="M13" t="n">
-        <v>61.12610433623877</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>410.1458962902038</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>418.8873695851748</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>186.2437526663639</v>
+        <v>41.5604685706088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>413.4043910048274</v>
+        <v>143.0973531949716</v>
       </c>
       <c r="M16" t="n">
-        <v>407.3567880793571</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>410.1458962902037</v>
       </c>
       <c r="O16" t="n">
-        <v>137.3984846674959</v>
+        <v>418.8873695851748</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>41.5604685706088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>67.88741115692937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>86.75762973212164</v>
       </c>
       <c r="L19" t="n">
-        <v>413.4043910048275</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>407.356788079357</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>410.1458962902037</v>
       </c>
       <c r="O19" t="n">
-        <v>23.8465163481917</v>
+        <v>418.8873695851748</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>41.5604685706088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>67.88741115692937</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>86.75762973212164</v>
       </c>
       <c r="L22" t="n">
-        <v>413.4043910048275</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>407.356788079357</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>410.1458962902037</v>
       </c>
       <c r="O22" t="n">
-        <v>374.8635809646989</v>
+        <v>418.8873695851748</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>105.4698299186005</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>756.3901750832638</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>158.5019245516887</v>
+        <v>809.4222697163518</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>67.8874111569296</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>41.56046857060915</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9798,7 +9798,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>200.4496069940675</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9807,13 +9807,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>296.1586061731614</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9877,13 +9877,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>105.4698299186012</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>105.4698299186005</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>41.560468570609</v>
       </c>
       <c r="K27" t="n">
-        <v>159.916810080043</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,10 +10041,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>36.02386824602308</v>
       </c>
       <c r="N28" t="n">
-        <v>18.62481367706459</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10114,7 +10114,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>837.1102279004566</v>
+        <v>105.4698299186005</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>248.6445634042502</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>809.4222697163518</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>41.560468570609</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>67.8874111569296</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>19.32423415971482</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>313.5576607421194</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,19 +10357,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>756.3901750832638</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>751.6504003466716</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>398.5216993681615</v>
+        <v>105.4698299186002</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>809.4222697163518</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>41.560468570609</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>67.8874111569296</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10509,13 +10509,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>19.32423415971482</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>36.02386824602263</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.2437526663636</v>
+        <v>186.2437526663639</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>140.6569793821195</v>
+        <v>86.75762973212164</v>
       </c>
       <c r="M37" t="n">
-        <v>407.3567880793573</v>
+        <v>407.3567880793571</v>
       </c>
       <c r="N37" t="n">
-        <v>410.1458962902041</v>
+        <v>410.1458962902038</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>418.8873695851751</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>41.5604685706088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.88741115692937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>413.4043910048275</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>407.3567880793571</v>
       </c>
       <c r="N40" t="n">
-        <v>369.380602384352</v>
+        <v>410.1458962902038</v>
       </c>
       <c r="O40" t="n">
-        <v>418.8873695851753</v>
+        <v>92.24060831246925</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>186.2437526663639</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.88741115692937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,16 +11226,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>407.3567880793572</v>
       </c>
       <c r="N43" t="n">
         <v>410.1458962902038</v>
       </c>
       <c r="O43" t="n">
-        <v>392.0930309979926</v>
+        <v>335.7533075351428</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>41.5604685706088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.88741115692937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>413.4043910048274</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>410.1458962902038</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>418.8873695851751</v>
+        <v>23.84651634819193</v>
       </c>
       <c r="P46" t="n">
-        <v>324.2227260293248</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.22884933923501</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>388.9598124332312</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>378.7875196397046</v>
+        <v>46.04644603302972</v>
       </c>
       <c r="G11" t="n">
         <v>350.9144168845714</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>224.3531587476337</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>165.7627714101269</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>211.6953879591161</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>314.189544910332</v>
       </c>
       <c r="W11" t="n">
         <v>356.0056643878973</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.1498031313027</v>
       </c>
       <c r="Y11" t="n">
         <v>359.4020268081634</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>145.0991968766175</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>202.0753989534095</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>56.97620207679233</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>388.9598124332312</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>384.635761738108</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>350.9144168845714</v>
       </c>
       <c r="H14" t="n">
         <v>224.3531587476337</v>
@@ -23560,10 +23560,10 @@
         <v>356.0056643878973</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>250.4334777542055</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.1543472756006</v>
+        <v>359.4020268081634</v>
       </c>
     </row>
     <row r="15">
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>83.68956970902056</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.653253039303848</v>
+        <v>118.3858292443895</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>195.4221459141056</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>231.1980915074745</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>384.635761738108</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>378.7875196397046</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>350.9144168845714</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>224.3531587476337</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>165.7627714101269</v>
       </c>
       <c r="U17" t="n">
         <v>211.6953879591161</v>
@@ -23794,10 +23794,10 @@
         <v>314.189544910332</v>
       </c>
       <c r="W17" t="n">
-        <v>8.778632174416884</v>
+        <v>356.0056643878973</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.1498031313027</v>
       </c>
       <c r="Y17" t="n">
         <v>359.4020268081634</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>145.0991968766175</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>78.81621089681974</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>123.2591880565904</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.97620207679196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>384.635761738108</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>378.7875196397046</v>
       </c>
       <c r="G20" t="n">
         <v>350.9144168845714</v>
       </c>
       <c r="H20" t="n">
-        <v>97.45923100167114</v>
+        <v>224.3531587476337</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>165.7627714101269</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>211.6953879591161</v>
       </c>
       <c r="V20" t="n">
         <v>314.189544910332</v>
@@ -24034,10 +24034,10 @@
         <v>356.0056643878973</v>
       </c>
       <c r="X20" t="n">
-        <v>370.1498031313027</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>359.4020268081634</v>
+        <v>231.0479849226642</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>71.93665111072806</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>130.1387478426816</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>87.04887342303677</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>20.46877270842495</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>94.55775282194811</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>196.6722392269044</v>
+        <v>196.6722392269053</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.7156525397511</v>
       </c>
       <c r="H26" t="n">
-        <v>269.1543944028134</v>
+        <v>69.18310529415845</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.5640070653066</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>344.1711369313005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>189.7367760392295</v>
+        <v>269.1543944028134</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.5640070653066</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>132.6985692165497</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>196.6722392269052</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6722392269044</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>377.235339124879</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>388.9598124332312</v>
       </c>
       <c r="D35" t="n">
-        <v>386.7494513221202</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>384.635761738108</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>378.7875196397046</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>134.2509622699535</v>
+        <v>66.81425806624058</v>
       </c>
       <c r="U35" t="n">
-        <v>211.6953879591161</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>314.189544910332</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>356.0056643878973</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.1498031313027</v>
       </c>
       <c r="Y35" t="n">
         <v>359.4020268081634</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.4179772153128</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>71.93665111072806</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>130.1387478426816</v>
       </c>
       <c r="G37" t="n">
-        <v>82.65742173809601</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>386.7494513221202</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>384.635761738108</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>165.7627714101269</v>
+        <v>46.04644603302926</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>211.6953879591161</v>
       </c>
       <c r="V38" t="n">
         <v>314.189544910332</v>
@@ -25456,10 +25456,10 @@
         <v>356.0056643878973</v>
       </c>
       <c r="X38" t="n">
-        <v>50.1456794612555</v>
+        <v>370.1498031313027</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>359.4020268081634</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>58.34743818839434</v>
       </c>
       <c r="E40" t="n">
         <v>123.2591880565904</v>
       </c>
       <c r="F40" t="n">
-        <v>78.81621089681839</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>20.46877270842495</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11.40876129095307</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>384.635761738108</v>
+        <v>91.97906258201863</v>
       </c>
       <c r="F41" t="n">
-        <v>378.7875196397046</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>350.9144168845714</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3531587476337</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>165.7627714101269</v>
       </c>
       <c r="U41" t="n">
-        <v>211.6953879591161</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>314.189544910332</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>356.0056643878973</v>
       </c>
       <c r="X41" t="n">
         <v>370.1498031313027</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.2684611550531</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.938797488667831</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>99.80693779835624</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>198.1366014647419</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>377.235339124879</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>388.9598124332312</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>231.1980915074738</v>
       </c>
       <c r="H44" t="n">
-        <v>66.81425806624043</v>
+        <v>224.3531587476337</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>165.7627714101269</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>211.6953879591161</v>
       </c>
       <c r="V44" t="n">
         <v>314.189544910332</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>115.0265255303729</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>87.04887342303678</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>6.653253039303763</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>195.4221459141056</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>285003.71250035</v>
+        <v>285003.7125003499</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>285003.71250035</v>
+        <v>285003.7125003499</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>285003.71250035</v>
+        <v>285003.7125003499</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>285003.7125003499</v>
+        <v>285003.71250035</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>503578.9096371251</v>
+        <v>503578.909637125</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>503578.9096371252</v>
+        <v>503578.909637125</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>285003.7125003501</v>
+        <v>285003.7125003499</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>285003.7125003501</v>
+        <v>285003.71250035</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>285003.71250035</v>
+        <v>285003.7125003499</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>285003.71250035</v>
+        <v>285003.7125003499</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>523384.6328897916</v>
       </c>
       <c r="C2" t="n">
-        <v>523384.6328897915</v>
+        <v>523384.6328897916</v>
       </c>
       <c r="D2" t="n">
         <v>523384.6328897916</v>
       </c>
       <c r="E2" t="n">
-        <v>353570.0969861077</v>
+        <v>353570.0969861076</v>
       </c>
       <c r="F2" t="n">
         <v>353570.0969861076</v>
@@ -26334,28 +26334,28 @@
         <v>353570.0969861077</v>
       </c>
       <c r="I2" t="n">
-        <v>520492.2096479473</v>
+        <v>520492.2096479472</v>
       </c>
       <c r="J2" t="n">
-        <v>470565.7126338147</v>
+        <v>470565.7126338148</v>
       </c>
       <c r="K2" t="n">
-        <v>470565.7126338147</v>
+        <v>470565.7126338146</v>
       </c>
       <c r="L2" t="n">
         <v>520492.2096479472</v>
       </c>
       <c r="M2" t="n">
-        <v>353570.0969861078</v>
+        <v>353570.0969861076</v>
       </c>
       <c r="N2" t="n">
         <v>353570.0969861077</v>
       </c>
       <c r="O2" t="n">
-        <v>353570.0969861076</v>
+        <v>353570.0969861077</v>
       </c>
       <c r="P2" t="n">
-        <v>353570.0969861076</v>
+        <v>353570.0969861078</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525875.6961218216</v>
+        <v>525875.6961218215</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.261091817170383e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>139516.9936895451</v>
+        <v>139516.993689545</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>35840.98852414378</v>
+        <v>35840.98852414379</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>57955.87773552818</v>
+        <v>57955.87773552816</v>
       </c>
       <c r="F4" t="n">
-        <v>57955.87773552817</v>
+        <v>57955.87773552816</v>
       </c>
       <c r="G4" t="n">
         <v>57955.87773552816</v>
@@ -26453,10 +26453,10 @@
         <v>57955.87773552818</v>
       </c>
       <c r="N4" t="n">
-        <v>57955.87773552816</v>
+        <v>57955.87773552817</v>
       </c>
       <c r="O4" t="n">
-        <v>57955.87773552816</v>
+        <v>57955.87773552818</v>
       </c>
       <c r="P4" t="n">
         <v>57955.87773552816</v>
@@ -26484,34 +26484,34 @@
         <v>44711.70180982696</v>
       </c>
       <c r="G5" t="n">
-        <v>44711.70180982697</v>
+        <v>44711.70180982696</v>
       </c>
       <c r="H5" t="n">
-        <v>44711.70180982697</v>
+        <v>44711.70180982696</v>
       </c>
       <c r="I5" t="n">
-        <v>76610.77415208027</v>
+        <v>76610.77415208025</v>
       </c>
       <c r="J5" t="n">
-        <v>72844.37907178496</v>
+        <v>72844.37907178495</v>
       </c>
       <c r="K5" t="n">
-        <v>72844.37907178496</v>
+        <v>72844.37907178495</v>
       </c>
       <c r="L5" t="n">
-        <v>76610.77415208027</v>
+        <v>76610.77415208025</v>
       </c>
       <c r="M5" t="n">
-        <v>44711.70180982698</v>
+        <v>44711.70180982696</v>
       </c>
       <c r="N5" t="n">
-        <v>44711.70180982698</v>
+        <v>44711.70180982696</v>
       </c>
       <c r="O5" t="n">
-        <v>44711.70180982697</v>
+        <v>44711.70180982696</v>
       </c>
       <c r="P5" t="n">
-        <v>44711.70180982697</v>
+        <v>44711.70180982696</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191026.3165779588</v>
+        <v>190994.4098604572</v>
       </c>
       <c r="C6" t="n">
-        <v>191026.3165779587</v>
+        <v>190994.4098604571</v>
       </c>
       <c r="D6" t="n">
-        <v>191026.3165779588</v>
+        <v>190994.4098604571</v>
       </c>
       <c r="E6" t="n">
-        <v>-274973.1786810691</v>
+        <v>-275429.6217383298</v>
       </c>
       <c r="F6" t="n">
-        <v>250902.5174407525</v>
+        <v>250446.0743834917</v>
       </c>
       <c r="G6" t="n">
-        <v>250902.5174407525</v>
+        <v>250446.0743834917</v>
       </c>
       <c r="H6" t="n">
-        <v>250902.5174407526</v>
+        <v>250446.0743834919</v>
       </c>
       <c r="I6" t="n">
-        <v>161950.3858849061</v>
+        <v>161911.2481093</v>
       </c>
       <c r="J6" t="n">
-        <v>283803.6783347337</v>
+        <v>283639.7243165923</v>
       </c>
       <c r="K6" t="n">
-        <v>283803.6783347338</v>
+        <v>283639.7243165922</v>
       </c>
       <c r="L6" t="n">
-        <v>265626.3910503073</v>
+        <v>265587.2532747012</v>
       </c>
       <c r="M6" t="n">
-        <v>250902.5174407526</v>
+        <v>250446.0743834918</v>
       </c>
       <c r="N6" t="n">
-        <v>250902.5174407526</v>
+        <v>250446.0743834919</v>
       </c>
       <c r="O6" t="n">
-        <v>250902.5174407524</v>
+        <v>250446.0743834919</v>
       </c>
       <c r="P6" t="n">
-        <v>250902.5174407525</v>
+        <v>250446.0743834919</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="M2" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="N2" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="O2" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="P2" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
     </row>
     <row r="3">
@@ -26752,34 +26752,34 @@
         <v>414.9648801503841</v>
       </c>
       <c r="G3" t="n">
-        <v>414.9648801503842</v>
+        <v>414.9648801503841</v>
       </c>
       <c r="H3" t="n">
-        <v>414.9648801503842</v>
+        <v>414.9648801503841</v>
       </c>
       <c r="I3" t="n">
-        <v>414.9648801503842</v>
+        <v>414.9648801503841</v>
       </c>
       <c r="J3" t="n">
-        <v>414.9648801503842</v>
+        <v>414.9648801503841</v>
       </c>
       <c r="K3" t="n">
-        <v>414.9648801503842</v>
+        <v>414.9648801503841</v>
       </c>
       <c r="L3" t="n">
-        <v>414.9648801503842</v>
+        <v>414.9648801503841</v>
       </c>
       <c r="M3" t="n">
-        <v>414.9648801503842</v>
+        <v>414.9648801503841</v>
       </c>
       <c r="N3" t="n">
-        <v>414.9648801503842</v>
+        <v>414.9648801503841</v>
       </c>
       <c r="O3" t="n">
-        <v>414.9648801503842</v>
+        <v>414.9648801503841</v>
       </c>
       <c r="P3" t="n">
-        <v>414.9648801503842</v>
+        <v>414.9648801503841</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.6557951028501</v>
+        <v>524.65579510285</v>
       </c>
       <c r="F4" t="n">
-        <v>524.6557951028501</v>
+        <v>524.65579510285</v>
       </c>
       <c r="G4" t="n">
-        <v>524.6557951028501</v>
+        <v>524.65579510285</v>
       </c>
       <c r="H4" t="n">
-        <v>524.6557951028501</v>
+        <v>524.65579510285</v>
       </c>
       <c r="I4" t="n">
         <v>1049.3115902057</v>
@@ -26822,10 +26822,10 @@
         <v>1049.3115902057</v>
       </c>
       <c r="M4" t="n">
-        <v>524.6557951028503</v>
+        <v>524.6557951028501</v>
       </c>
       <c r="N4" t="n">
-        <v>524.6557951028503</v>
+        <v>524.6557951028501</v>
       </c>
       <c r="O4" t="n">
         <v>524.6557951028501</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>414.9648801503841</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.39075054832453e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>524.6557951028501</v>
+        <v>524.65579510285</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>524.6557951028503</v>
+        <v>524.65579510285</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>524.6557951028501</v>
+        <v>524.65579510285</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T17" t="n">
         <v>44.80123565517973</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T20" t="n">
         <v>44.80123565517973</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T23" t="n">
         <v>44.80123565517973</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="C32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="D32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="E32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="F32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="G32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="H32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="U32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="V32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="W32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="X32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="Y32" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
     </row>
     <row r="33">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="C35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="D35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="E35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="F35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="G35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="H35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="U35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="V35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="W35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="X35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="Y35" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="C37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="D37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="E37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="F37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="G37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="H37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="I37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30194,25 +30194,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="U37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="V37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="W37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="X37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="C38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="D38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="E38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="F38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="G38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="H38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="U38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="V38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="W38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="X38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="Y38" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
     </row>
     <row r="39">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="C40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="D40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="E40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="F40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="G40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="H40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="I40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30431,25 +30431,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="U40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="V40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="W40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="X40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="C41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="D41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="E41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="F41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="G41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="H41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="U41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="V41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="W41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="X41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="Y41" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
     </row>
     <row r="42">
@@ -30617,28 +30617,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="C43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="D43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="E43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="F43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="G43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="H43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="I43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30668,25 +30668,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="U43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="V43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="W43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="X43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="C44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="D44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="E44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="F44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="G44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="H44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="U44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="V44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="W44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="X44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
     </row>
     <row r="45">
@@ -30854,28 +30854,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="C46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="D46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="E46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="F46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="G46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="H46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="I46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30905,25 +30905,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="T46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="U46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="V46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="W46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="X46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.80123565517972</v>
+        <v>44.80123565517973</v>
       </c>
     </row>
   </sheetData>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.668200523217624</v>
+        <v>1.668200523217623</v>
       </c>
       <c r="H17" t="n">
         <v>17.08445860840249</v>
       </c>
       <c r="I17" t="n">
-        <v>64.31330067134751</v>
+        <v>64.31330067134748</v>
       </c>
       <c r="J17" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K17" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L17" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M17" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N17" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O17" t="n">
-        <v>281.0730209062836</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P17" t="n">
-        <v>239.8893204893485</v>
+        <v>239.8893204893484</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.1468892516173</v>
+        <v>180.1468892516172</v>
       </c>
       <c r="R17" t="n">
         <v>104.7901011165691</v>
       </c>
       <c r="S17" t="n">
-        <v>38.01411942282164</v>
+        <v>38.01411942282163</v>
       </c>
       <c r="T17" t="n">
-        <v>7.302547790385152</v>
+        <v>7.302547790385149</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1334560418574099</v>
+        <v>0.1334560418574098</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8925659686253548</v>
+        <v>0.8925659686253545</v>
       </c>
       <c r="H18" t="n">
-        <v>8.620308170671191</v>
+        <v>8.620308170671189</v>
       </c>
       <c r="I18" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925015</v>
       </c>
       <c r="J18" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K18" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L18" t="n">
-        <v>193.8003433192903</v>
+        <v>193.8003433192902</v>
       </c>
       <c r="M18" t="n">
-        <v>226.1558596819594</v>
+        <v>226.1558596819593</v>
       </c>
       <c r="N18" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O18" t="n">
         <v>212.3641495614895</v>
@@ -32338,16 +32338,16 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R18" t="n">
-        <v>55.41738531517775</v>
+        <v>55.41738531517773</v>
       </c>
       <c r="S18" t="n">
         <v>16.57902139091392</v>
       </c>
       <c r="T18" t="n">
-        <v>3.597667215643424</v>
+        <v>3.597667215643423</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05872144530429968</v>
+        <v>0.05872144530429966</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7482973248613485</v>
+        <v>0.7482973248613483</v>
       </c>
       <c r="H19" t="n">
-        <v>6.653043488312721</v>
+        <v>6.653043488312719</v>
       </c>
       <c r="I19" t="n">
         <v>22.50334136946674</v>
       </c>
       <c r="J19" t="n">
-        <v>52.90462086769733</v>
+        <v>52.90462086769732</v>
       </c>
       <c r="K19" t="n">
-        <v>86.93854374298211</v>
+        <v>86.93854374298208</v>
       </c>
       <c r="L19" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M19" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N19" t="n">
-        <v>114.5098988126463</v>
+        <v>114.5098988126462</v>
       </c>
       <c r="O19" t="n">
         <v>105.768425517675</v>
       </c>
       <c r="P19" t="n">
-        <v>90.50316009050341</v>
+        <v>90.5031600905034</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.65969690270801</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R19" t="n">
-        <v>33.64616880694754</v>
+        <v>33.64616880694752</v>
       </c>
       <c r="S19" t="n">
         <v>13.04078156144731</v>
       </c>
       <c r="T19" t="n">
-        <v>3.197270388043943</v>
+        <v>3.197270388043942</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04081621771970997</v>
+        <v>0.04081621771970995</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.668200523217624</v>
+        <v>1.668200523217623</v>
       </c>
       <c r="H20" t="n">
         <v>17.08445860840249</v>
       </c>
       <c r="I20" t="n">
-        <v>64.31330067134751</v>
+        <v>64.31330067134748</v>
       </c>
       <c r="J20" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K20" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L20" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M20" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N20" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O20" t="n">
-        <v>281.0730209062836</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P20" t="n">
-        <v>239.8893204893485</v>
+        <v>239.8893204893484</v>
       </c>
       <c r="Q20" t="n">
-        <v>180.1468892516173</v>
+        <v>180.1468892516172</v>
       </c>
       <c r="R20" t="n">
         <v>104.7901011165691</v>
       </c>
       <c r="S20" t="n">
-        <v>38.01411942282164</v>
+        <v>38.01411942282163</v>
       </c>
       <c r="T20" t="n">
-        <v>7.302547790385152</v>
+        <v>7.302547790385149</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1334560418574099</v>
+        <v>0.1334560418574098</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8925659686253548</v>
+        <v>0.8925659686253545</v>
       </c>
       <c r="H21" t="n">
-        <v>8.620308170671191</v>
+        <v>8.620308170671189</v>
       </c>
       <c r="I21" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925015</v>
       </c>
       <c r="J21" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K21" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L21" t="n">
-        <v>193.8003433192903</v>
+        <v>193.8003433192902</v>
       </c>
       <c r="M21" t="n">
-        <v>226.1558596819594</v>
+        <v>226.1558596819593</v>
       </c>
       <c r="N21" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O21" t="n">
         <v>212.3641495614895</v>
@@ -32575,16 +32575,16 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R21" t="n">
-        <v>55.41738531517775</v>
+        <v>55.41738531517773</v>
       </c>
       <c r="S21" t="n">
         <v>16.57902139091392</v>
       </c>
       <c r="T21" t="n">
-        <v>3.597667215643424</v>
+        <v>3.597667215643423</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05872144530429968</v>
+        <v>0.05872144530429966</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7482973248613485</v>
+        <v>0.7482973248613483</v>
       </c>
       <c r="H22" t="n">
-        <v>6.653043488312721</v>
+        <v>6.653043488312719</v>
       </c>
       <c r="I22" t="n">
         <v>22.50334136946674</v>
       </c>
       <c r="J22" t="n">
-        <v>52.90462086769733</v>
+        <v>52.90462086769732</v>
       </c>
       <c r="K22" t="n">
-        <v>86.93854374298211</v>
+        <v>86.93854374298208</v>
       </c>
       <c r="L22" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M22" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N22" t="n">
-        <v>114.5098988126463</v>
+        <v>114.5098988126462</v>
       </c>
       <c r="O22" t="n">
         <v>105.768425517675</v>
       </c>
       <c r="P22" t="n">
-        <v>90.50316009050341</v>
+        <v>90.5031600905034</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.65969690270801</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R22" t="n">
-        <v>33.64616880694754</v>
+        <v>33.64616880694752</v>
       </c>
       <c r="S22" t="n">
         <v>13.04078156144731</v>
       </c>
       <c r="T22" t="n">
-        <v>3.197270388043943</v>
+        <v>3.197270388043942</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04081621771970997</v>
+        <v>0.04081621771970995</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.668200523217624</v>
+        <v>1.668200523217623</v>
       </c>
       <c r="H23" t="n">
         <v>17.08445860840249</v>
       </c>
       <c r="I23" t="n">
-        <v>64.31330067134751</v>
+        <v>64.31330067134748</v>
       </c>
       <c r="J23" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K23" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L23" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M23" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N23" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O23" t="n">
-        <v>281.0730209062836</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P23" t="n">
-        <v>239.8893204893485</v>
+        <v>239.8893204893484</v>
       </c>
       <c r="Q23" t="n">
-        <v>180.1468892516173</v>
+        <v>180.1468892516172</v>
       </c>
       <c r="R23" t="n">
         <v>104.7901011165691</v>
       </c>
       <c r="S23" t="n">
-        <v>38.01411942282164</v>
+        <v>38.01411942282163</v>
       </c>
       <c r="T23" t="n">
-        <v>7.302547790385152</v>
+        <v>7.302547790385149</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1334560418574099</v>
+        <v>0.1334560418574098</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8925659686253548</v>
+        <v>0.8925659686253545</v>
       </c>
       <c r="H24" t="n">
-        <v>8.620308170671191</v>
+        <v>8.620308170671189</v>
       </c>
       <c r="I24" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925015</v>
       </c>
       <c r="J24" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K24" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L24" t="n">
-        <v>193.8003433192903</v>
+        <v>193.8003433192902</v>
       </c>
       <c r="M24" t="n">
-        <v>226.1558596819594</v>
+        <v>226.1558596819593</v>
       </c>
       <c r="N24" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O24" t="n">
         <v>212.3641495614895</v>
@@ -32812,16 +32812,16 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R24" t="n">
-        <v>55.41738531517775</v>
+        <v>55.41738531517773</v>
       </c>
       <c r="S24" t="n">
         <v>16.57902139091392</v>
       </c>
       <c r="T24" t="n">
-        <v>3.597667215643424</v>
+        <v>3.597667215643423</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05872144530429968</v>
+        <v>0.05872144530429966</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7482973248613485</v>
+        <v>0.7482973248613483</v>
       </c>
       <c r="H25" t="n">
-        <v>6.653043488312721</v>
+        <v>6.653043488312719</v>
       </c>
       <c r="I25" t="n">
         <v>22.50334136946674</v>
       </c>
       <c r="J25" t="n">
-        <v>52.90462086769733</v>
+        <v>52.90462086769732</v>
       </c>
       <c r="K25" t="n">
-        <v>86.93854374298211</v>
+        <v>86.93854374298208</v>
       </c>
       <c r="L25" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M25" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N25" t="n">
-        <v>114.5098988126463</v>
+        <v>114.5098988126462</v>
       </c>
       <c r="O25" t="n">
         <v>105.768425517675</v>
       </c>
       <c r="P25" t="n">
-        <v>90.50316009050341</v>
+        <v>90.5031600905034</v>
       </c>
       <c r="Q25" t="n">
-        <v>62.65969690270801</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R25" t="n">
-        <v>33.64616880694754</v>
+        <v>33.64616880694752</v>
       </c>
       <c r="S25" t="n">
         <v>13.04078156144731</v>
       </c>
       <c r="T25" t="n">
-        <v>3.197270388043943</v>
+        <v>3.197270388043942</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04081621771970997</v>
+        <v>0.04081621771970995</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.668200523217624</v>
+        <v>1.668200523217623</v>
       </c>
       <c r="H26" t="n">
         <v>17.08445860840249</v>
       </c>
       <c r="I26" t="n">
-        <v>64.31330067134751</v>
+        <v>64.31330067134748</v>
       </c>
       <c r="J26" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K26" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L26" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M26" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N26" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O26" t="n">
-        <v>281.0730209062836</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P26" t="n">
-        <v>239.8893204893485</v>
+        <v>239.8893204893484</v>
       </c>
       <c r="Q26" t="n">
-        <v>180.1468892516173</v>
+        <v>180.1468892516172</v>
       </c>
       <c r="R26" t="n">
         <v>104.7901011165691</v>
       </c>
       <c r="S26" t="n">
-        <v>38.01411942282164</v>
+        <v>38.01411942282163</v>
       </c>
       <c r="T26" t="n">
-        <v>7.302547790385152</v>
+        <v>7.302547790385149</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1334560418574099</v>
+        <v>0.1334560418574098</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8925659686253548</v>
+        <v>0.8925659686253545</v>
       </c>
       <c r="H27" t="n">
-        <v>8.620308170671191</v>
+        <v>8.620308170671189</v>
       </c>
       <c r="I27" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925015</v>
       </c>
       <c r="J27" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K27" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L27" t="n">
-        <v>193.8003433192903</v>
+        <v>193.8003433192902</v>
       </c>
       <c r="M27" t="n">
-        <v>226.1558596819594</v>
+        <v>226.1558596819593</v>
       </c>
       <c r="N27" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O27" t="n">
         <v>212.3641495614895</v>
@@ -33049,16 +33049,16 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R27" t="n">
-        <v>55.41738531517775</v>
+        <v>55.41738531517773</v>
       </c>
       <c r="S27" t="n">
         <v>16.57902139091392</v>
       </c>
       <c r="T27" t="n">
-        <v>3.597667215643424</v>
+        <v>3.597667215643423</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05872144530429968</v>
+        <v>0.05872144530429966</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7482973248613485</v>
+        <v>0.7482973248613483</v>
       </c>
       <c r="H28" t="n">
-        <v>6.653043488312721</v>
+        <v>6.653043488312719</v>
       </c>
       <c r="I28" t="n">
         <v>22.50334136946674</v>
       </c>
       <c r="J28" t="n">
-        <v>52.90462086769733</v>
+        <v>52.90462086769732</v>
       </c>
       <c r="K28" t="n">
-        <v>86.93854374298211</v>
+        <v>86.93854374298208</v>
       </c>
       <c r="L28" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M28" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N28" t="n">
-        <v>114.5098988126463</v>
+        <v>114.5098988126462</v>
       </c>
       <c r="O28" t="n">
         <v>105.768425517675</v>
       </c>
       <c r="P28" t="n">
-        <v>90.50316009050341</v>
+        <v>90.5031600905034</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.65969690270801</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R28" t="n">
-        <v>33.64616880694754</v>
+        <v>33.64616880694752</v>
       </c>
       <c r="S28" t="n">
         <v>13.04078156144731</v>
       </c>
       <c r="T28" t="n">
-        <v>3.197270388043943</v>
+        <v>3.197270388043942</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04081621771970997</v>
+        <v>0.04081621771970995</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.668200523217624</v>
+        <v>1.668200523217623</v>
       </c>
       <c r="H29" t="n">
         <v>17.08445860840249</v>
       </c>
       <c r="I29" t="n">
-        <v>64.31330067134751</v>
+        <v>64.31330067134748</v>
       </c>
       <c r="J29" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K29" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L29" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M29" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N29" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O29" t="n">
-        <v>281.0730209062836</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P29" t="n">
-        <v>239.8893204893485</v>
+        <v>239.8893204893484</v>
       </c>
       <c r="Q29" t="n">
-        <v>180.1468892516173</v>
+        <v>180.1468892516172</v>
       </c>
       <c r="R29" t="n">
         <v>104.7901011165691</v>
       </c>
       <c r="S29" t="n">
-        <v>38.01411942282164</v>
+        <v>38.01411942282163</v>
       </c>
       <c r="T29" t="n">
-        <v>7.302547790385152</v>
+        <v>7.302547790385149</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1334560418574099</v>
+        <v>0.1334560418574098</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8925659686253548</v>
+        <v>0.8925659686253545</v>
       </c>
       <c r="H30" t="n">
-        <v>8.620308170671191</v>
+        <v>8.620308170671189</v>
       </c>
       <c r="I30" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925015</v>
       </c>
       <c r="J30" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K30" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L30" t="n">
-        <v>193.8003433192903</v>
+        <v>193.8003433192902</v>
       </c>
       <c r="M30" t="n">
-        <v>226.1558596819594</v>
+        <v>226.1558596819593</v>
       </c>
       <c r="N30" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O30" t="n">
         <v>212.3641495614895</v>
@@ -33286,16 +33286,16 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R30" t="n">
-        <v>55.41738531517775</v>
+        <v>55.41738531517773</v>
       </c>
       <c r="S30" t="n">
         <v>16.57902139091392</v>
       </c>
       <c r="T30" t="n">
-        <v>3.597667215643424</v>
+        <v>3.597667215643423</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05872144530429968</v>
+        <v>0.05872144530429966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7482973248613485</v>
+        <v>0.7482973248613483</v>
       </c>
       <c r="H31" t="n">
-        <v>6.653043488312721</v>
+        <v>6.653043488312719</v>
       </c>
       <c r="I31" t="n">
         <v>22.50334136946674</v>
       </c>
       <c r="J31" t="n">
-        <v>52.90462086769733</v>
+        <v>52.90462086769732</v>
       </c>
       <c r="K31" t="n">
-        <v>86.93854374298211</v>
+        <v>86.93854374298208</v>
       </c>
       <c r="L31" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M31" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N31" t="n">
-        <v>114.5098988126463</v>
+        <v>114.5098988126462</v>
       </c>
       <c r="O31" t="n">
         <v>105.768425517675</v>
       </c>
       <c r="P31" t="n">
-        <v>90.50316009050341</v>
+        <v>90.5031600905034</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.65969690270801</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R31" t="n">
-        <v>33.64616880694754</v>
+        <v>33.64616880694752</v>
       </c>
       <c r="S31" t="n">
         <v>13.04078156144731</v>
       </c>
       <c r="T31" t="n">
-        <v>3.197270388043943</v>
+        <v>3.197270388043942</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04081621771970997</v>
+        <v>0.04081621771970995</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.668200523217624</v>
+        <v>1.668200523217623</v>
       </c>
       <c r="H32" t="n">
         <v>17.08445860840249</v>
       </c>
       <c r="I32" t="n">
-        <v>64.31330067134751</v>
+        <v>64.31330067134748</v>
       </c>
       <c r="J32" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K32" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L32" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M32" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N32" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O32" t="n">
-        <v>281.0730209062836</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P32" t="n">
-        <v>239.8893204893485</v>
+        <v>239.8893204893484</v>
       </c>
       <c r="Q32" t="n">
-        <v>180.1468892516173</v>
+        <v>180.1468892516172</v>
       </c>
       <c r="R32" t="n">
         <v>104.7901011165691</v>
       </c>
       <c r="S32" t="n">
-        <v>38.01411942282164</v>
+        <v>38.01411942282163</v>
       </c>
       <c r="T32" t="n">
-        <v>7.302547790385152</v>
+        <v>7.302547790385149</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1334560418574099</v>
+        <v>0.1334560418574098</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8925659686253548</v>
+        <v>0.8925659686253545</v>
       </c>
       <c r="H33" t="n">
-        <v>8.620308170671191</v>
+        <v>8.620308170671189</v>
       </c>
       <c r="I33" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925015</v>
       </c>
       <c r="J33" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K33" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L33" t="n">
-        <v>193.8003433192903</v>
+        <v>193.8003433192902</v>
       </c>
       <c r="M33" t="n">
-        <v>226.1558596819594</v>
+        <v>226.1558596819593</v>
       </c>
       <c r="N33" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O33" t="n">
         <v>212.3641495614895</v>
@@ -33523,16 +33523,16 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R33" t="n">
-        <v>55.41738531517775</v>
+        <v>55.41738531517773</v>
       </c>
       <c r="S33" t="n">
         <v>16.57902139091392</v>
       </c>
       <c r="T33" t="n">
-        <v>3.597667215643424</v>
+        <v>3.597667215643423</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05872144530429968</v>
+        <v>0.05872144530429966</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7482973248613485</v>
+        <v>0.7482973248613483</v>
       </c>
       <c r="H34" t="n">
-        <v>6.653043488312721</v>
+        <v>6.653043488312719</v>
       </c>
       <c r="I34" t="n">
         <v>22.50334136946674</v>
       </c>
       <c r="J34" t="n">
-        <v>52.90462086769733</v>
+        <v>52.90462086769732</v>
       </c>
       <c r="K34" t="n">
-        <v>86.93854374298211</v>
+        <v>86.93854374298208</v>
       </c>
       <c r="L34" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M34" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N34" t="n">
-        <v>114.5098988126463</v>
+        <v>114.5098988126462</v>
       </c>
       <c r="O34" t="n">
         <v>105.768425517675</v>
       </c>
       <c r="P34" t="n">
-        <v>90.50316009050341</v>
+        <v>90.5031600905034</v>
       </c>
       <c r="Q34" t="n">
-        <v>62.65969690270801</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R34" t="n">
-        <v>33.64616880694754</v>
+        <v>33.64616880694752</v>
       </c>
       <c r="S34" t="n">
         <v>13.04078156144731</v>
       </c>
       <c r="T34" t="n">
-        <v>3.197270388043943</v>
+        <v>3.197270388043942</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04081621771970997</v>
+        <v>0.04081621771970995</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.668200523217624</v>
+        <v>1.668200523217623</v>
       </c>
       <c r="H35" t="n">
         <v>17.08445860840249</v>
       </c>
       <c r="I35" t="n">
-        <v>64.31330067134751</v>
+        <v>64.31330067134748</v>
       </c>
       <c r="J35" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K35" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L35" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M35" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N35" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O35" t="n">
-        <v>281.0730209062836</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P35" t="n">
-        <v>239.8893204893485</v>
+        <v>239.8893204893484</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.1468892516173</v>
+        <v>180.1468892516172</v>
       </c>
       <c r="R35" t="n">
         <v>104.7901011165691</v>
       </c>
       <c r="S35" t="n">
-        <v>38.01411942282164</v>
+        <v>38.01411942282163</v>
       </c>
       <c r="T35" t="n">
-        <v>7.302547790385152</v>
+        <v>7.302547790385149</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1334560418574099</v>
+        <v>0.1334560418574098</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8925659686253548</v>
+        <v>0.8925659686253545</v>
       </c>
       <c r="H36" t="n">
-        <v>8.620308170671191</v>
+        <v>8.620308170671189</v>
       </c>
       <c r="I36" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925015</v>
       </c>
       <c r="J36" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K36" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L36" t="n">
-        <v>193.8003433192903</v>
+        <v>193.8003433192902</v>
       </c>
       <c r="M36" t="n">
-        <v>226.1558596819594</v>
+        <v>226.1558596819593</v>
       </c>
       <c r="N36" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O36" t="n">
         <v>212.3641495614895</v>
@@ -33760,16 +33760,16 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R36" t="n">
-        <v>55.41738531517775</v>
+        <v>55.41738531517773</v>
       </c>
       <c r="S36" t="n">
         <v>16.57902139091392</v>
       </c>
       <c r="T36" t="n">
-        <v>3.597667215643424</v>
+        <v>3.597667215643423</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05872144530429968</v>
+        <v>0.05872144530429966</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7482973248613485</v>
+        <v>0.7482973248613483</v>
       </c>
       <c r="H37" t="n">
-        <v>6.653043488312721</v>
+        <v>6.653043488312719</v>
       </c>
       <c r="I37" t="n">
         <v>22.50334136946674</v>
       </c>
       <c r="J37" t="n">
-        <v>52.90462086769733</v>
+        <v>52.90462086769732</v>
       </c>
       <c r="K37" t="n">
-        <v>86.93854374298211</v>
+        <v>86.93854374298208</v>
       </c>
       <c r="L37" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M37" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N37" t="n">
-        <v>114.5098988126463</v>
+        <v>114.5098988126462</v>
       </c>
       <c r="O37" t="n">
         <v>105.768425517675</v>
       </c>
       <c r="P37" t="n">
-        <v>90.50316009050341</v>
+        <v>90.5031600905034</v>
       </c>
       <c r="Q37" t="n">
-        <v>62.65969690270801</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R37" t="n">
-        <v>33.64616880694754</v>
+        <v>33.64616880694752</v>
       </c>
       <c r="S37" t="n">
         <v>13.04078156144731</v>
       </c>
       <c r="T37" t="n">
-        <v>3.197270388043943</v>
+        <v>3.197270388043942</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04081621771970997</v>
+        <v>0.04081621771970995</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.668200523217624</v>
+        <v>1.668200523217623</v>
       </c>
       <c r="H38" t="n">
         <v>17.08445860840249</v>
       </c>
       <c r="I38" t="n">
-        <v>64.31330067134751</v>
+        <v>64.31330067134748</v>
       </c>
       <c r="J38" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K38" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L38" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M38" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N38" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O38" t="n">
-        <v>281.0730209062836</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P38" t="n">
-        <v>239.8893204893485</v>
+        <v>239.8893204893484</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.1468892516173</v>
+        <v>180.1468892516172</v>
       </c>
       <c r="R38" t="n">
         <v>104.7901011165691</v>
       </c>
       <c r="S38" t="n">
-        <v>38.01411942282164</v>
+        <v>38.01411942282163</v>
       </c>
       <c r="T38" t="n">
-        <v>7.302547790385152</v>
+        <v>7.302547790385149</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1334560418574099</v>
+        <v>0.1334560418574098</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8925659686253548</v>
+        <v>0.8925659686253545</v>
       </c>
       <c r="H39" t="n">
-        <v>8.620308170671191</v>
+        <v>8.620308170671189</v>
       </c>
       <c r="I39" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925015</v>
       </c>
       <c r="J39" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K39" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L39" t="n">
-        <v>193.8003433192903</v>
+        <v>193.8003433192902</v>
       </c>
       <c r="M39" t="n">
-        <v>226.1558596819594</v>
+        <v>226.1558596819593</v>
       </c>
       <c r="N39" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O39" t="n">
         <v>212.3641495614895</v>
@@ -33997,16 +33997,16 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R39" t="n">
-        <v>55.41738531517775</v>
+        <v>55.41738531517773</v>
       </c>
       <c r="S39" t="n">
         <v>16.57902139091392</v>
       </c>
       <c r="T39" t="n">
-        <v>3.597667215643424</v>
+        <v>3.597667215643423</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05872144530429968</v>
+        <v>0.05872144530429966</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7482973248613485</v>
+        <v>0.7482973248613483</v>
       </c>
       <c r="H40" t="n">
-        <v>6.653043488312721</v>
+        <v>6.653043488312719</v>
       </c>
       <c r="I40" t="n">
         <v>22.50334136946674</v>
       </c>
       <c r="J40" t="n">
-        <v>52.90462086769733</v>
+        <v>52.90462086769732</v>
       </c>
       <c r="K40" t="n">
-        <v>86.93854374298211</v>
+        <v>86.93854374298208</v>
       </c>
       <c r="L40" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M40" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N40" t="n">
-        <v>114.5098988126463</v>
+        <v>114.5098988126462</v>
       </c>
       <c r="O40" t="n">
         <v>105.768425517675</v>
       </c>
       <c r="P40" t="n">
-        <v>90.50316009050341</v>
+        <v>90.5031600905034</v>
       </c>
       <c r="Q40" t="n">
-        <v>62.65969690270801</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R40" t="n">
-        <v>33.64616880694754</v>
+        <v>33.64616880694752</v>
       </c>
       <c r="S40" t="n">
         <v>13.04078156144731</v>
       </c>
       <c r="T40" t="n">
-        <v>3.197270388043943</v>
+        <v>3.197270388043942</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04081621771970997</v>
+        <v>0.04081621771970995</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.668200523217624</v>
+        <v>1.668200523217623</v>
       </c>
       <c r="H41" t="n">
         <v>17.08445860840249</v>
       </c>
       <c r="I41" t="n">
-        <v>64.31330067134751</v>
+        <v>64.31330067134748</v>
       </c>
       <c r="J41" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K41" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L41" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M41" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N41" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O41" t="n">
-        <v>281.0730209062836</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P41" t="n">
-        <v>239.8893204893485</v>
+        <v>239.8893204893484</v>
       </c>
       <c r="Q41" t="n">
-        <v>180.1468892516173</v>
+        <v>180.1468892516172</v>
       </c>
       <c r="R41" t="n">
         <v>104.7901011165691</v>
       </c>
       <c r="S41" t="n">
-        <v>38.01411942282164</v>
+        <v>38.01411942282163</v>
       </c>
       <c r="T41" t="n">
-        <v>7.302547790385152</v>
+        <v>7.302547790385149</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1334560418574099</v>
+        <v>0.1334560418574098</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8925659686253548</v>
+        <v>0.8925659686253545</v>
       </c>
       <c r="H42" t="n">
-        <v>8.620308170671191</v>
+        <v>8.620308170671189</v>
       </c>
       <c r="I42" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925015</v>
       </c>
       <c r="J42" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K42" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L42" t="n">
-        <v>193.8003433192903</v>
+        <v>193.8003433192902</v>
       </c>
       <c r="M42" t="n">
-        <v>226.1558596819594</v>
+        <v>226.1558596819593</v>
       </c>
       <c r="N42" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O42" t="n">
         <v>212.3641495614895</v>
@@ -34234,16 +34234,16 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R42" t="n">
-        <v>55.41738531517775</v>
+        <v>55.41738531517773</v>
       </c>
       <c r="S42" t="n">
         <v>16.57902139091392</v>
       </c>
       <c r="T42" t="n">
-        <v>3.597667215643424</v>
+        <v>3.597667215643423</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05872144530429968</v>
+        <v>0.05872144530429966</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7482973248613485</v>
+        <v>0.7482973248613483</v>
       </c>
       <c r="H43" t="n">
-        <v>6.653043488312721</v>
+        <v>6.653043488312719</v>
       </c>
       <c r="I43" t="n">
         <v>22.50334136946674</v>
       </c>
       <c r="J43" t="n">
-        <v>52.90462086769733</v>
+        <v>52.90462086769732</v>
       </c>
       <c r="K43" t="n">
-        <v>86.93854374298211</v>
+        <v>86.93854374298208</v>
       </c>
       <c r="L43" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M43" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N43" t="n">
-        <v>114.5098988126463</v>
+        <v>114.5098988126462</v>
       </c>
       <c r="O43" t="n">
         <v>105.768425517675</v>
       </c>
       <c r="P43" t="n">
-        <v>90.50316009050341</v>
+        <v>90.5031600905034</v>
       </c>
       <c r="Q43" t="n">
-        <v>62.65969690270801</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R43" t="n">
-        <v>33.64616880694754</v>
+        <v>33.64616880694752</v>
       </c>
       <c r="S43" t="n">
         <v>13.04078156144731</v>
       </c>
       <c r="T43" t="n">
-        <v>3.197270388043943</v>
+        <v>3.197270388043942</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04081621771970997</v>
+        <v>0.04081621771970995</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.668200523217624</v>
+        <v>1.668200523217623</v>
       </c>
       <c r="H44" t="n">
         <v>17.08445860840249</v>
       </c>
       <c r="I44" t="n">
-        <v>64.31330067134751</v>
+        <v>64.31330067134748</v>
       </c>
       <c r="J44" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K44" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L44" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M44" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N44" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O44" t="n">
-        <v>281.0730209062836</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P44" t="n">
-        <v>239.8893204893485</v>
+        <v>239.8893204893484</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.1468892516173</v>
+        <v>180.1468892516172</v>
       </c>
       <c r="R44" t="n">
         <v>104.7901011165691</v>
       </c>
       <c r="S44" t="n">
-        <v>38.01411942282164</v>
+        <v>38.01411942282163</v>
       </c>
       <c r="T44" t="n">
-        <v>7.302547790385152</v>
+        <v>7.302547790385149</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1334560418574099</v>
+        <v>0.1334560418574098</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8925659686253548</v>
+        <v>0.8925659686253545</v>
       </c>
       <c r="H45" t="n">
-        <v>8.620308170671191</v>
+        <v>8.620308170671189</v>
       </c>
       <c r="I45" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925015</v>
       </c>
       <c r="J45" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K45" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L45" t="n">
-        <v>193.8003433192903</v>
+        <v>193.8003433192902</v>
       </c>
       <c r="M45" t="n">
-        <v>226.1558596819594</v>
+        <v>226.1558596819593</v>
       </c>
       <c r="N45" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O45" t="n">
         <v>212.3641495614895</v>
@@ -34471,16 +34471,16 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R45" t="n">
-        <v>55.41738531517775</v>
+        <v>55.41738531517773</v>
       </c>
       <c r="S45" t="n">
         <v>16.57902139091392</v>
       </c>
       <c r="T45" t="n">
-        <v>3.597667215643424</v>
+        <v>3.597667215643423</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05872144530429968</v>
+        <v>0.05872144530429966</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7482973248613485</v>
+        <v>0.7482973248613483</v>
       </c>
       <c r="H46" t="n">
-        <v>6.653043488312721</v>
+        <v>6.653043488312719</v>
       </c>
       <c r="I46" t="n">
         <v>22.50334136946674</v>
       </c>
       <c r="J46" t="n">
-        <v>52.90462086769733</v>
+        <v>52.90462086769732</v>
       </c>
       <c r="K46" t="n">
-        <v>86.93854374298211</v>
+        <v>86.93854374298208</v>
       </c>
       <c r="L46" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M46" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N46" t="n">
-        <v>114.5098988126463</v>
+        <v>114.5098988126462</v>
       </c>
       <c r="O46" t="n">
         <v>105.768425517675</v>
       </c>
       <c r="P46" t="n">
-        <v>90.50316009050341</v>
+        <v>90.5031600905034</v>
       </c>
       <c r="Q46" t="n">
-        <v>62.65969690270801</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R46" t="n">
-        <v>33.64616880694754</v>
+        <v>33.64616880694752</v>
       </c>
       <c r="S46" t="n">
         <v>13.04078156144731</v>
       </c>
       <c r="T46" t="n">
-        <v>3.197270388043943</v>
+        <v>3.197270388043942</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04081621771970997</v>
+        <v>0.04081621771970995</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>63.90067919221608</v>
       </c>
       <c r="J11" t="n">
-        <v>141.586434157442</v>
+        <v>141.5864341574419</v>
       </c>
       <c r="K11" t="n">
         <v>212.2013623052439</v>
@@ -35418,7 +35418,7 @@
         <v>263.2545540676654</v>
       </c>
       <c r="M11" t="n">
-        <v>292.9214151224367</v>
+        <v>292.9214151224365</v>
       </c>
       <c r="N11" t="n">
         <v>297.6611898590288</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.73088970925014</v>
+        <v>57.05783229557095</v>
       </c>
       <c r="J12" t="n">
         <v>84.32791021999458</v>
@@ -35500,19 +35500,19 @@
         <v>226.1558596819593</v>
       </c>
       <c r="N12" t="n">
-        <v>418.3852850063415</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O12" t="n">
-        <v>212.3641495614895</v>
+        <v>212.3641495614894</v>
       </c>
       <c r="P12" t="n">
         <v>170.4409523772399</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.9352629424225</v>
+        <v>155.4957315130314</v>
       </c>
       <c r="R12" t="n">
-        <v>55.41738531517763</v>
+        <v>173.7737268246119</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>140.358848306778</v>
+        <v>52.90462086769733</v>
       </c>
       <c r="K13" t="n">
-        <v>86.93854374298206</v>
+        <v>226.7774022233301</v>
       </c>
       <c r="L13" t="n">
-        <v>524.6557951028501</v>
+        <v>524.65579510285</v>
       </c>
       <c r="M13" t="n">
-        <v>178.4251113597318</v>
+        <v>117.299007023493</v>
       </c>
       <c r="N13" t="n">
-        <v>524.6557951028501</v>
+        <v>114.5098988126463</v>
       </c>
       <c r="O13" t="n">
-        <v>105.768425517675</v>
+        <v>524.6557951028499</v>
       </c>
       <c r="P13" t="n">
         <v>441.5202247070104</v>
@@ -35646,7 +35646,7 @@
         <v>63.90067919221608</v>
       </c>
       <c r="J14" t="n">
-        <v>141.586434157442</v>
+        <v>141.5864341574418</v>
       </c>
       <c r="K14" t="n">
         <v>212.2013623052439</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>30.73088970925014</v>
+        <v>57.05783229557095</v>
       </c>
       <c r="J15" t="n">
-        <v>270.5716628863585</v>
+        <v>125.8883787906034</v>
       </c>
       <c r="K15" t="n">
         <v>144.1298301178933</v>
@@ -35749,7 +35749,7 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R15" t="n">
-        <v>55.41738531517763</v>
+        <v>173.7737268246119</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>140.358848306778</v>
+        <v>52.90462086769733</v>
       </c>
       <c r="K16" t="n">
-        <v>364.4723362390786</v>
+        <v>86.93854374298209</v>
       </c>
       <c r="L16" t="n">
-        <v>524.6557951028501</v>
+        <v>254.3487572929943</v>
       </c>
       <c r="M16" t="n">
-        <v>524.6557951028501</v>
+        <v>117.299007023493</v>
       </c>
       <c r="N16" t="n">
-        <v>114.5098988126463</v>
+        <v>524.65579510285</v>
       </c>
       <c r="O16" t="n">
-        <v>243.166910185171</v>
+        <v>524.6557951028499</v>
       </c>
       <c r="P16" t="n">
-        <v>90.50316009050334</v>
+        <v>441.5202247070104</v>
       </c>
       <c r="Q16" t="n">
         <v>62.65969690270799</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>63.90067919221611</v>
+        <v>63.90067919221608</v>
       </c>
       <c r="J17" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K17" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L17" t="n">
         <v>263.2545540676654</v>
       </c>
       <c r="M17" t="n">
-        <v>292.9214151224367</v>
+        <v>292.9214151224365</v>
       </c>
       <c r="N17" t="n">
         <v>297.6611898590288</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>30.73088970925016</v>
+        <v>57.05783229557095</v>
       </c>
       <c r="J18" t="n">
-        <v>84.32791021999462</v>
+        <v>125.8883787906034</v>
       </c>
       <c r="K18" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L18" t="n">
         <v>193.8003433192903</v>
@@ -35974,7 +35974,7 @@
         <v>226.1558596819593</v>
       </c>
       <c r="N18" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O18" t="n">
         <v>212.3641495614895</v>
@@ -35983,7 +35983,7 @@
         <v>170.4409523772399</v>
       </c>
       <c r="Q18" t="n">
-        <v>181.8226740993518</v>
+        <v>113.9352629424225</v>
       </c>
       <c r="R18" t="n">
         <v>173.7737268246119</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>140.358848306778</v>
+        <v>52.90462086769733</v>
       </c>
       <c r="K19" t="n">
-        <v>364.4723362390787</v>
+        <v>173.6961734751037</v>
       </c>
       <c r="L19" t="n">
-        <v>524.6557951028502</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M19" t="n">
-        <v>117.299007023493</v>
+        <v>524.65579510285</v>
       </c>
       <c r="N19" t="n">
-        <v>114.5098988126463</v>
+        <v>524.65579510285</v>
       </c>
       <c r="O19" t="n">
-        <v>129.6149418658667</v>
+        <v>524.6557951028499</v>
       </c>
       <c r="P19" t="n">
-        <v>441.5202247070106</v>
+        <v>90.50316009050334</v>
       </c>
       <c r="Q19" t="n">
-        <v>232.5513886848619</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R19" t="n">
-        <v>12.4425257252657</v>
+        <v>12.44252572526569</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>63.90067919221611</v>
+        <v>63.90067919221608</v>
       </c>
       <c r="J20" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K20" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L20" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M20" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224362</v>
       </c>
       <c r="N20" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O20" t="n">
         <v>281.0730209062835</v>
@@ -36141,7 +36141,7 @@
         <v>239.8893204893484</v>
       </c>
       <c r="Q20" t="n">
-        <v>180.1468892516168</v>
+        <v>180.1468892516173</v>
       </c>
       <c r="R20" t="n">
         <v>104.7901011165691</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>30.73088970925016</v>
+        <v>57.05783229557095</v>
       </c>
       <c r="J21" t="n">
-        <v>84.32791021999462</v>
+        <v>125.8883787906034</v>
       </c>
       <c r="K21" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L21" t="n">
         <v>193.8003433192903</v>
@@ -36211,13 +36211,13 @@
         <v>226.1558596819593</v>
       </c>
       <c r="N21" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O21" t="n">
         <v>212.3641495614895</v>
       </c>
       <c r="P21" t="n">
-        <v>238.3283635341693</v>
+        <v>170.4409523772399</v>
       </c>
       <c r="Q21" t="n">
         <v>113.9352629424225</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>140.358848306778</v>
+        <v>52.90462086769733</v>
       </c>
       <c r="K22" t="n">
-        <v>364.4723362390787</v>
+        <v>173.6961734751037</v>
       </c>
       <c r="L22" t="n">
-        <v>524.6557951028502</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M22" t="n">
-        <v>117.299007023493</v>
+        <v>524.65579510285</v>
       </c>
       <c r="N22" t="n">
-        <v>114.5098988126463</v>
+        <v>524.65579510285</v>
       </c>
       <c r="O22" t="n">
-        <v>480.632006482374</v>
+        <v>524.6557951028499</v>
       </c>
       <c r="P22" t="n">
         <v>90.50316009050334</v>
       </c>
       <c r="Q22" t="n">
-        <v>232.5513886848619</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R22" t="n">
-        <v>12.4425257252657</v>
+        <v>12.44252572526569</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>63.90067919221611</v>
+        <v>63.90067919221608</v>
       </c>
       <c r="J23" t="n">
         <v>581.2376336048337</v>
       </c>
       <c r="K23" t="n">
-        <v>212.2013623052439</v>
+        <v>317.6711922238444</v>
       </c>
       <c r="L23" t="n">
-        <v>263.2545540676655</v>
+        <v>263.2545540676654</v>
       </c>
       <c r="M23" t="n">
-        <v>1049.311590205701</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N23" t="n">
-        <v>297.661189859029</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O23" t="n">
         <v>281.0730209062835</v>
       </c>
       <c r="P23" t="n">
-        <v>398.3912450410371</v>
+        <v>1049.3115902057</v>
       </c>
       <c r="Q23" t="n">
         <v>732.1658649673695</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>30.73088970925016</v>
+        <v>57.05783229557095</v>
       </c>
       <c r="J24" t="n">
-        <v>84.32791021999461</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K24" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L24" t="n">
         <v>193.8003433192903</v>
@@ -36448,16 +36448,16 @@
         <v>226.1558596819593</v>
       </c>
       <c r="N24" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O24" t="n">
-        <v>212.3641495614895</v>
+        <v>212.3641495614894</v>
       </c>
       <c r="P24" t="n">
-        <v>238.3283635341695</v>
+        <v>170.4409523772399</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.9352629424225</v>
+        <v>155.4957315130316</v>
       </c>
       <c r="R24" t="n">
         <v>173.7737268246119</v>
@@ -36518,7 +36518,7 @@
         <v>140.358848306778</v>
       </c>
       <c r="K25" t="n">
-        <v>86.93854374298212</v>
+        <v>287.3881507370496</v>
       </c>
       <c r="L25" t="n">
         <v>533.6856281060641</v>
@@ -36527,19 +36527,19 @@
         <v>581.4241253880516</v>
       </c>
       <c r="N25" t="n">
-        <v>410.6685049858077</v>
+        <v>561.2359626082468</v>
       </c>
       <c r="O25" t="n">
         <v>529.6767580689693</v>
       </c>
       <c r="P25" t="n">
-        <v>441.5202247070101</v>
+        <v>90.50316009050357</v>
       </c>
       <c r="Q25" t="n">
         <v>232.5513886848616</v>
       </c>
       <c r="R25" t="n">
-        <v>12.4425257252657</v>
+        <v>12.44252572526569</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>63.90067919221611</v>
+        <v>63.90067919221608</v>
       </c>
       <c r="J26" t="n">
         <v>581.2376336048337</v>
       </c>
       <c r="K26" t="n">
-        <v>317.6711922238452</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L26" t="n">
         <v>263.2545540676654</v>
       </c>
       <c r="M26" t="n">
-        <v>292.9214151224367</v>
+        <v>398.3912450410371</v>
       </c>
       <c r="N26" t="n">
         <v>297.6611898590288</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>57.05783229557096</v>
+        <v>57.05783229557095</v>
       </c>
       <c r="J27" t="n">
-        <v>84.32791021999461</v>
+        <v>125.8883787906036</v>
       </c>
       <c r="K27" t="n">
-        <v>304.0466401979363</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L27" t="n">
         <v>193.8003433192903</v>
@@ -36697,7 +36697,7 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R27" t="n">
-        <v>55.41738531517785</v>
+        <v>173.7737268246119</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,16 +36755,16 @@
         <v>140.358848306778</v>
       </c>
       <c r="K28" t="n">
-        <v>364.4723362390787</v>
+        <v>364.4723362390786</v>
       </c>
       <c r="L28" t="n">
-        <v>533.6856281060643</v>
+        <v>533.685628106064</v>
       </c>
       <c r="M28" t="n">
-        <v>581.4241253880516</v>
+        <v>153.3228752695161</v>
       </c>
       <c r="N28" t="n">
-        <v>133.1347124897109</v>
+        <v>561.2359626082468</v>
       </c>
       <c r="O28" t="n">
         <v>529.6767580689693</v>
@@ -36776,7 +36776,7 @@
         <v>232.5513886848616</v>
       </c>
       <c r="R28" t="n">
-        <v>12.4425257252657</v>
+        <v>12.44252572526569</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>63.90067919221611</v>
+        <v>63.90067919221608</v>
       </c>
       <c r="J29" t="n">
         <v>581.2376336048337</v>
       </c>
       <c r="K29" t="n">
-        <v>1049.311590205701</v>
+        <v>317.6711922238444</v>
       </c>
       <c r="L29" t="n">
         <v>263.2545540676654</v>
@@ -36843,19 +36843,19 @@
         <v>292.9214151224367</v>
       </c>
       <c r="N29" t="n">
-        <v>546.3057532632793</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O29" t="n">
         <v>281.0730209062835</v>
       </c>
       <c r="P29" t="n">
-        <v>239.8893204893484</v>
+        <v>1049.3115902057</v>
       </c>
       <c r="Q29" t="n">
         <v>732.1658649673695</v>
       </c>
       <c r="R29" t="n">
-        <v>104.7901011165695</v>
+        <v>275.6527927863235</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>30.73088970925016</v>
+        <v>57.05783229557095</v>
       </c>
       <c r="J30" t="n">
-        <v>84.32791021999461</v>
+        <v>125.8883787906036</v>
       </c>
       <c r="K30" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L30" t="n">
         <v>193.8003433192903</v>
@@ -36922,13 +36922,13 @@
         <v>226.1558596819593</v>
       </c>
       <c r="N30" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O30" t="n">
         <v>212.3641495614895</v>
       </c>
       <c r="P30" t="n">
-        <v>238.3283635341695</v>
+        <v>170.4409523772399</v>
       </c>
       <c r="Q30" t="n">
         <v>113.9352629424225</v>
@@ -36992,13 +36992,13 @@
         <v>140.358848306778</v>
       </c>
       <c r="K31" t="n">
-        <v>86.93854374298212</v>
+        <v>106.2627779026969</v>
       </c>
       <c r="L31" t="n">
         <v>533.6856281060641</v>
       </c>
       <c r="M31" t="n">
-        <v>430.8566677656124</v>
+        <v>581.4241253880516</v>
       </c>
       <c r="N31" t="n">
         <v>561.2359626082468</v>
@@ -37010,10 +37010,10 @@
         <v>441.5202247070101</v>
       </c>
       <c r="Q31" t="n">
-        <v>232.5513886848616</v>
+        <v>62.65969690270776</v>
       </c>
       <c r="R31" t="n">
-        <v>12.4425257252657</v>
+        <v>12.44252572526569</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>63.90067919221611</v>
+        <v>63.90067919221608</v>
       </c>
       <c r="J32" t="n">
-        <v>141.5864341574419</v>
+        <v>581.2376336048337</v>
       </c>
       <c r="K32" t="n">
         <v>212.2013623052439</v>
@@ -37077,19 +37077,19 @@
         <v>263.2545540676654</v>
       </c>
       <c r="M32" t="n">
+        <v>292.9214151224367</v>
+      </c>
+      <c r="N32" t="n">
+        <v>297.6611898590288</v>
+      </c>
+      <c r="O32" t="n">
+        <v>386.542850824884</v>
+      </c>
+      <c r="P32" t="n">
         <v>1049.3115902057</v>
       </c>
-      <c r="N32" t="n">
-        <v>1049.311590205701</v>
-      </c>
-      <c r="O32" t="n">
-        <v>679.5947202744451</v>
-      </c>
-      <c r="P32" t="n">
-        <v>239.8893204893484</v>
-      </c>
       <c r="Q32" t="n">
-        <v>180.1468892516173</v>
+        <v>732.1658649673695</v>
       </c>
       <c r="R32" t="n">
         <v>275.6527927863235</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>30.73088970925016</v>
+        <v>57.05783229557095</v>
       </c>
       <c r="J33" t="n">
-        <v>84.32791021999461</v>
+        <v>125.8883787906036</v>
       </c>
       <c r="K33" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L33" t="n">
         <v>193.8003433192903</v>
@@ -37159,7 +37159,7 @@
         <v>226.1558596819593</v>
       </c>
       <c r="N33" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O33" t="n">
         <v>212.3641495614895</v>
@@ -37168,7 +37168,7 @@
         <v>170.4409523772399</v>
       </c>
       <c r="Q33" t="n">
-        <v>181.8226740993521</v>
+        <v>113.9352629424225</v>
       </c>
       <c r="R33" t="n">
         <v>173.7737268246119</v>
@@ -37229,13 +37229,13 @@
         <v>140.358848306778</v>
       </c>
       <c r="K34" t="n">
-        <v>364.4723362390787</v>
+        <v>106.2627779026969</v>
       </c>
       <c r="L34" t="n">
-        <v>533.6856281060643</v>
+        <v>533.6856281060641</v>
       </c>
       <c r="M34" t="n">
-        <v>153.3228752695156</v>
+        <v>581.4241253880516</v>
       </c>
       <c r="N34" t="n">
         <v>561.2359626082468</v>
@@ -37247,10 +37247,10 @@
         <v>441.5202247070101</v>
       </c>
       <c r="Q34" t="n">
-        <v>232.5513886848616</v>
+        <v>62.65969690270776</v>
       </c>
       <c r="R34" t="n">
-        <v>12.4425257252657</v>
+        <v>12.44252572526569</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>63.90067919221611</v>
+        <v>63.90067919221608</v>
       </c>
       <c r="J35" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K35" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L35" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M35" t="n">
         <v>292.9214151224367</v>
@@ -37320,7 +37320,7 @@
         <v>297.6611898590288</v>
       </c>
       <c r="O35" t="n">
-        <v>281.0730209062838</v>
+        <v>281.0730209062835</v>
       </c>
       <c r="P35" t="n">
         <v>239.8893204893484</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925014</v>
       </c>
       <c r="J36" t="n">
-        <v>270.5716628863582</v>
+        <v>270.5716628863585</v>
       </c>
       <c r="K36" t="n">
         <v>144.1298301178933</v>
@@ -37408,7 +37408,7 @@
         <v>113.9352629424225</v>
       </c>
       <c r="R36" t="n">
-        <v>55.41738531517785</v>
+        <v>55.41738531517763</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>140.358848306778</v>
+        <v>52.90462086769731</v>
       </c>
       <c r="K37" t="n">
-        <v>364.4723362390787</v>
+        <v>86.93854374298209</v>
       </c>
       <c r="L37" t="n">
-        <v>251.9083834801422</v>
+        <v>198.0090338301443</v>
       </c>
       <c r="M37" t="n">
-        <v>524.6557951028503</v>
+        <v>524.6557951028501</v>
       </c>
       <c r="N37" t="n">
-        <v>524.6557951028503</v>
+        <v>524.6557951028501</v>
       </c>
       <c r="O37" t="n">
-        <v>105.768425517675</v>
+        <v>524.6557951028501</v>
       </c>
       <c r="P37" t="n">
         <v>90.50316009050334</v>
       </c>
       <c r="Q37" t="n">
-        <v>62.65969690270822</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R37" t="n">
-        <v>12.4425257252657</v>
+        <v>12.44252572526569</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>63.90067919221611</v>
+        <v>63.90067919221608</v>
       </c>
       <c r="J38" t="n">
-        <v>141.586434157442</v>
+        <v>141.5864341574419</v>
       </c>
       <c r="K38" t="n">
         <v>212.2013623052439</v>
       </c>
       <c r="L38" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M38" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N38" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O38" t="n">
         <v>281.0730209062835</v>
@@ -37566,7 +37566,7 @@
         <v>180.1468892516173</v>
       </c>
       <c r="R38" t="n">
-        <v>104.7901011165693</v>
+        <v>104.7901011165691</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>30.73088970925016</v>
+        <v>57.05783229557095</v>
       </c>
       <c r="J39" t="n">
-        <v>84.32791021999461</v>
+        <v>125.8883787906034</v>
       </c>
       <c r="K39" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L39" t="n">
         <v>193.8003433192903</v>
@@ -37633,7 +37633,7 @@
         <v>226.1558596819593</v>
       </c>
       <c r="N39" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O39" t="n">
         <v>212.3641495614895</v>
@@ -37642,7 +37642,7 @@
         <v>170.4409523772399</v>
       </c>
       <c r="Q39" t="n">
-        <v>181.8226740993518</v>
+        <v>113.9352629424225</v>
       </c>
       <c r="R39" t="n">
         <v>173.7737268246119</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>140.358848306778</v>
+        <v>52.90462086769731</v>
       </c>
       <c r="K40" t="n">
-        <v>364.4723362390787</v>
+        <v>86.93854374298209</v>
       </c>
       <c r="L40" t="n">
-        <v>111.2514040980227</v>
+        <v>524.6557951028501</v>
       </c>
       <c r="M40" t="n">
-        <v>117.299007023493</v>
+        <v>524.6557951028501</v>
       </c>
       <c r="N40" t="n">
-        <v>483.8905011969982</v>
+        <v>524.6557951028501</v>
       </c>
       <c r="O40" t="n">
-        <v>524.6557951028503</v>
+        <v>198.0090338301443</v>
       </c>
       <c r="P40" t="n">
         <v>90.50316009050334</v>
       </c>
       <c r="Q40" t="n">
-        <v>232.5513886848619</v>
+        <v>62.65969690270799</v>
       </c>
       <c r="R40" t="n">
-        <v>12.4425257252657</v>
+        <v>12.44252572526569</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,22 +37776,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>63.90067919221611</v>
+        <v>63.90067919221608</v>
       </c>
       <c r="J41" t="n">
-        <v>141.5864341574419</v>
+        <v>141.586434157442</v>
       </c>
       <c r="K41" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L41" t="n">
         <v>263.2545540676654</v>
       </c>
       <c r="M41" t="n">
-        <v>292.9214151224368</v>
+        <v>292.9214151224367</v>
       </c>
       <c r="N41" t="n">
-        <v>297.6611898590289</v>
+        <v>297.6611898590288</v>
       </c>
       <c r="O41" t="n">
         <v>281.0730209062835</v>
@@ -37803,7 +37803,7 @@
         <v>180.1468892516173</v>
       </c>
       <c r="R41" t="n">
-        <v>104.7901011165686</v>
+        <v>104.7901011165691</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>30.73088970925016</v>
+        <v>30.73088970925014</v>
       </c>
       <c r="J42" t="n">
-        <v>84.32791021999462</v>
+        <v>84.32791021999458</v>
       </c>
       <c r="K42" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L42" t="n">
-        <v>193.8003433192903</v>
+        <v>380.0440959856542</v>
       </c>
       <c r="M42" t="n">
         <v>226.1558596819593</v>
       </c>
       <c r="N42" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O42" t="n">
         <v>212.3641495614895</v>
@@ -37879,10 +37879,10 @@
         <v>170.4409523772399</v>
       </c>
       <c r="Q42" t="n">
-        <v>181.8226740993518</v>
+        <v>113.9352629424225</v>
       </c>
       <c r="R42" t="n">
-        <v>173.7737268246119</v>
+        <v>55.41738531517763</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.90462086769734</v>
+        <v>52.90462086769731</v>
       </c>
       <c r="K43" t="n">
-        <v>86.93854374298212</v>
+        <v>86.93854374298209</v>
       </c>
       <c r="L43" t="n">
-        <v>111.2514040980227</v>
+        <v>111.2514040980226</v>
       </c>
       <c r="M43" t="n">
-        <v>117.299007023493</v>
+        <v>524.6557951028501</v>
       </c>
       <c r="N43" t="n">
         <v>524.6557951028501</v>
       </c>
       <c r="O43" t="n">
-        <v>497.8614565156677</v>
+        <v>441.5217330528178</v>
       </c>
       <c r="P43" t="n">
-        <v>441.5202247070106</v>
+        <v>90.50316009050334</v>
       </c>
       <c r="Q43" t="n">
         <v>232.5513886848619</v>
       </c>
       <c r="R43" t="n">
-        <v>12.4425257252657</v>
+        <v>12.44252572526569</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>63.90067919221611</v>
+        <v>63.90067919221608</v>
       </c>
       <c r="J44" t="n">
         <v>141.5864341574419</v>
       </c>
       <c r="K44" t="n">
-        <v>212.201362305244</v>
+        <v>212.2013623052439</v>
       </c>
       <c r="L44" t="n">
-        <v>263.2545540676654</v>
+        <v>263.2545540676653</v>
       </c>
       <c r="M44" t="n">
         <v>292.9214151224367</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>30.73088970925016</v>
+        <v>57.05783229557095</v>
       </c>
       <c r="J45" t="n">
-        <v>84.32791021999462</v>
+        <v>125.8883787906034</v>
       </c>
       <c r="K45" t="n">
-        <v>144.1298301178934</v>
+        <v>144.1298301178933</v>
       </c>
       <c r="L45" t="n">
         <v>193.8003433192903</v>
@@ -38107,7 +38107,7 @@
         <v>226.1558596819593</v>
       </c>
       <c r="N45" t="n">
-        <v>232.1415323399777</v>
+        <v>232.1415323399776</v>
       </c>
       <c r="O45" t="n">
         <v>212.3641495614895</v>
@@ -38116,7 +38116,7 @@
         <v>170.4409523772399</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.8226740993518</v>
+        <v>113.9352629424225</v>
       </c>
       <c r="R45" t="n">
         <v>173.7737268246119</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.90462086769734</v>
+        <v>140.358848306778</v>
       </c>
       <c r="K46" t="n">
-        <v>86.93854374298212</v>
+        <v>364.4723362390786</v>
       </c>
       <c r="L46" t="n">
-        <v>111.2514040980227</v>
+        <v>524.6557951028501</v>
       </c>
       <c r="M46" t="n">
         <v>117.299007023493</v>
       </c>
       <c r="N46" t="n">
-        <v>524.6557951028501</v>
+        <v>114.5098988126463</v>
       </c>
       <c r="O46" t="n">
-        <v>524.6557951028501</v>
+        <v>129.614941865867</v>
       </c>
       <c r="P46" t="n">
-        <v>414.7258861198281</v>
+        <v>441.5202247070106</v>
       </c>
       <c r="Q46" t="n">
         <v>232.5513886848619</v>
       </c>
       <c r="R46" t="n">
-        <v>12.4425257252657</v>
+        <v>12.44252572526569</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
